--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Retinopatía proliferativa (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Retinopatía proliferativa (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.449221006080694</v>
+        <v>3.327422885572131</v>
       </c>
       <c r="H2" t="n">
-        <v>1.310666666666666</v>
+        <v>1.204000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>6.258666666666681</v>
+        <v>6.039999999999996</v>
       </c>
       <c r="J2" t="n">
-        <v>14.37476602488169</v>
+        <v>14.22700497512437</v>
       </c>
       <c r="K2" t="n">
-        <v>7.311635353535356</v>
+        <v>7.332000000000003</v>
       </c>
       <c r="L2" t="n">
-        <v>22.9616958874459</v>
+        <v>23.564</v>
       </c>
       <c r="M2" t="n">
-        <v>14.63286481030016</v>
+        <v>14.02372139303482</v>
       </c>
       <c r="N2" t="n">
-        <v>8.213693975128551</v>
+        <v>8.024000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>20.75953037540375</v>
+        <v>20.56400000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>9.610308150224785</v>
+        <v>10.49757213930347</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.925717459583836</v>
+        <v>6.488</v>
       </c>
       <c r="R2" t="n">
-        <v>13.60877041111066</v>
+        <v>14.18000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>6.468938131773082</v>
+        <v>6.592815920398009</v>
       </c>
       <c r="T2" t="n">
-        <v>4.095215325785326</v>
+        <v>4.163999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>9.017639777999779</v>
+        <v>9.311999999999996</v>
       </c>
       <c r="V2" t="n">
-        <v>3.134432849095205</v>
+        <v>3.23645771144278</v>
       </c>
       <c r="W2" t="n">
-        <v>1.461282997898787</v>
+        <v>1.576</v>
       </c>
       <c r="X2" t="n">
-        <v>5.231182828282828</v>
+        <v>5.223999999999997</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.621993722419095</v>
+        <v>0.6137313432835815</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.02463682483094248</v>
+        <v>0.004</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.39203808706686</v>
+        <v>1.392</v>
       </c>
     </row>
     <row r="3">
@@ -676,64 +676,64 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.801801801801802e-05</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001030956329463788</v>
+        <v>0.00334328358208954</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002</v>
+        <v>0.02</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0702131090191504</v>
+        <v>0.05775124378109446</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02244444444444445</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2996629742806212</v>
+        <v>0.276</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07083893736088633</v>
+        <v>0.06511442786069643</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4079999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06988020709495685</v>
+        <v>0.07239800995024873</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3866666666666667</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05528321953872228</v>
+        <v>0.05599999999999989</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2811681829993044</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01437555886031955</v>
+        <v>0.01699502487562187</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0001212121212121212</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -759,64 +759,64 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.801801801801802e-05</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003435046987285791</v>
+        <v>0.0032636815920398</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004000000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1902905999105</v>
+        <v>0.1939104477611939</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6473883597883595</v>
+        <v>0.6640000000000006</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2862678275290206</v>
+        <v>0.2862885572139293</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9746666666666666</v>
+        <v>0.9199999999999997</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3080503449140844</v>
+        <v>0.3016517412935315</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9353432815550461</v>
+        <v>0.9279999999999997</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2252294779479133</v>
+        <v>0.2269452736318398</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7802</v>
+        <v>0.7440000000000002</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07278535839505977</v>
+        <v>0.07004975124378099</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00101010101010101</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3993444444444435</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -839,43 +839,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0009780725999631442</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.801801801801802e-05</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06540536698374998</v>
+        <v>0.06025870646766154</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3631975157401935</v>
+        <v>0.2719999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07700509646076485</v>
+        <v>0.07789054726368158</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3825031378207843</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07853827331986354</v>
+        <v>0.08314427860696506</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07642024947136881</v>
+        <v>0.07518407960199006</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -884,22 +884,22 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05969359532499703</v>
+        <v>0.06455721393034822</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3851939268461007</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01388165034173218</v>
+        <v>0.01818905472636808</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001731846710794079</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -922,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3277653086386182</v>
+        <v>0.3227263681592034</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003463520663520664</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8625746031746022</v>
+        <v>0.8839999999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9806558187896485</v>
+        <v>0.9609950248756204</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1922222222222218</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.95742142857143</v>
+        <v>1.951999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>1.387382369058985</v>
+        <v>1.372796019900495</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>2.623110437710443</v>
+        <v>2.667999999999998</v>
       </c>
       <c r="P6" t="n">
-        <v>1.499207602403123</v>
+        <v>1.485114427860695</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2581090909090905</v>
+        <v>0.2439999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>3.01220291005291</v>
+        <v>3.124</v>
       </c>
       <c r="S6" t="n">
-        <v>1.400234932121499</v>
+        <v>1.407104477611939</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3712978929567159</v>
+        <v>0.396</v>
       </c>
       <c r="U6" t="n">
-        <v>2.869969869019869</v>
+        <v>2.852</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9591442491866837</v>
+        <v>0.9885373134328358</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1303015873015871</v>
+        <v>0.172</v>
       </c>
       <c r="X6" t="n">
-        <v>2.137355555555556</v>
+        <v>2.192000000000002</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2548232312739768</v>
+        <v>0.2703283582089543</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01007160116571881</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7373299182299174</v>
+        <v>0.7680000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.501305535812989</v>
+        <v>3.241134328358208</v>
       </c>
       <c r="K7" t="n">
-        <v>1.354131313131316</v>
+        <v>1.284</v>
       </c>
       <c r="L7" t="n">
-        <v>6.172666666666666</v>
+        <v>5.971999999999996</v>
       </c>
       <c r="M7" t="n">
-        <v>14.36083084577116</v>
+        <v>13.87468656716418</v>
       </c>
       <c r="N7" t="n">
-        <v>7.325022222222225</v>
+        <v>6.795999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>22.80588888888885</v>
+        <v>22.50000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>14.31354563771838</v>
+        <v>13.58821890547262</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.084118084203379</v>
+        <v>8.047999999999995</v>
       </c>
       <c r="R7" t="n">
-        <v>20.56680530009492</v>
+        <v>19.59600000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>9.392655475800813</v>
+        <v>9.773950248756206</v>
       </c>
       <c r="T7" t="n">
-        <v>6.187328908128908</v>
+        <v>6.528</v>
       </c>
       <c r="U7" t="n">
-        <v>12.76149891395155</v>
+        <v>13.28799999999999</v>
       </c>
       <c r="V7" t="n">
-        <v>4.745618475626835</v>
+        <v>4.923203980099492</v>
       </c>
       <c r="W7" t="n">
-        <v>2.912314285714285</v>
+        <v>3.012</v>
       </c>
       <c r="X7" t="n">
-        <v>6.871873126873128</v>
+        <v>7.099999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9551737436692647</v>
+        <v>0.9709850746268649</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2065076960076957</v>
+        <v>0.2079999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.817844442159147</v>
+        <v>1.988</v>
       </c>
     </row>
     <row r="8">
@@ -1106,49 +1106,49 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>88.66420729684894</v>
+        <v>88.39156218905462</v>
       </c>
       <c r="N8" t="n">
-        <v>78.07466666666674</v>
+        <v>77.37199999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>95.0473238095239</v>
+        <v>94.91999999999996</v>
       </c>
       <c r="P8" t="n">
-        <v>3.903207296849083</v>
+        <v>4.050606965174119</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.129999999999999</v>
+        <v>0.8200000000000004</v>
       </c>
       <c r="R8" t="n">
-        <v>10.12713333333332</v>
+        <v>10.344</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3736351575456049</v>
+        <v>0.1760398009950248</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2880000000000001</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0373466003316749</v>
+        <v>0.008895522388059685</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03733333333333334</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.108</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.006169154228855722</v>
+        <v>0.0003980099502487559</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.008000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1106666666666665</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="9">
@@ -1174,64 +1174,64 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001351351351351351</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6493543183553127</v>
+        <v>0.6514427860696513</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.506959523809524</v>
+        <v>1.452</v>
       </c>
       <c r="M9" t="n">
-        <v>1.106082697622993</v>
+        <v>1.100457711442785</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2039999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>2.498268302068302</v>
+        <v>2.440000000000002</v>
       </c>
       <c r="P9" t="n">
-        <v>1.372264510779436</v>
+        <v>1.389134328358207</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2832424242424238</v>
+        <v>0.352</v>
       </c>
       <c r="R9" t="n">
-        <v>2.962169696969698</v>
+        <v>2.936</v>
       </c>
       <c r="S9" t="n">
-        <v>1.325426546919083</v>
+        <v>1.344099502487562</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3622445717681008</v>
+        <v>0.352</v>
       </c>
       <c r="U9" t="n">
-        <v>2.62296986901987</v>
+        <v>2.528000000000001</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9557046968466337</v>
+        <v>0.9689353233830833</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1837793650793647</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>2.115302627781575</v>
+        <v>2.240000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2852118218431638</v>
+        <v>0.2844975124378096</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.002731846710794079</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8632149110149102</v>
+        <v>0.9479999999999998</v>
       </c>
     </row>
     <row r="10">
@@ -1263,43 +1263,43 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>66.85069483293017</v>
+        <v>68.57896517412922</v>
       </c>
       <c r="K10" t="n">
-        <v>51.51292449402449</v>
+        <v>52.47199999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>77.39077273674035</v>
+        <v>80.49599999999997</v>
       </c>
       <c r="M10" t="n">
-        <v>23.4047495854062</v>
+        <v>23.43211940298503</v>
       </c>
       <c r="N10" t="n">
-        <v>14.0611111111111</v>
+        <v>13.85200000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>35.0456</v>
+        <v>35.06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8006721629945491</v>
+        <v>0.7300895522388038</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.048</v>
+        <v>0.008</v>
       </c>
       <c r="R10" t="n">
-        <v>2.936304761904761</v>
+        <v>2.94</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03802966820354859</v>
+        <v>0.03725373134328342</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2749714285714285</v>
+        <v>0.3479999999999999</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002366448182368577</v>
+        <v>0.003323383084577114</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>11.47318584853507</v>
+        <v>11.32021890547263</v>
       </c>
       <c r="H11" t="n">
-        <v>5.706355555555547</v>
+        <v>5.484000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>20.78155555555551</v>
+        <v>19.57600000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>32.52792355514389</v>
+        <v>32.90551243781089</v>
       </c>
       <c r="K11" t="n">
-        <v>20.09794737854738</v>
+        <v>20.88399999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>44.64148253968258</v>
+        <v>44.92799999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>16.84163678472338</v>
+        <v>18.73404975124378</v>
       </c>
       <c r="N11" t="n">
-        <v>12.75608923760602</v>
+        <v>14.31999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>22.21122106643499</v>
+        <v>23.316</v>
       </c>
       <c r="P11" t="n">
-        <v>8.188474549628518</v>
+        <v>8.213512437810943</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.677391238457481</v>
+        <v>3.607999999999997</v>
       </c>
       <c r="R11" t="n">
-        <v>13.02099320313345</v>
+        <v>12.65200000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>3.483269572412104</v>
+        <v>3.358726368159203</v>
       </c>
       <c r="T11" t="n">
-        <v>1.044703367003367</v>
+        <v>0.8959999999999998</v>
       </c>
       <c r="U11" t="n">
-        <v>7.678637352647354</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="V11" t="n">
-        <v>1.091710889994471</v>
+        <v>1.077631840796019</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.9334</v>
+        <v>2.868</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1424309168443496</v>
+        <v>0.1439203980099502</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0001390374331550802</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5070518518518519</v>
+        <v>0.5920000000000005</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.250772802653394</v>
+        <v>1.15994029850746</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2462222222222223</v>
+        <v>0.184</v>
       </c>
       <c r="F12" t="n">
-        <v>2.811466666666665</v>
+        <v>2.464</v>
       </c>
       <c r="G12" t="n">
-        <v>4.292243117744598</v>
+        <v>4.281850746268642</v>
       </c>
       <c r="H12" t="n">
-        <v>1.925800000000002</v>
+        <v>1.851999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>7.554044444444444</v>
+        <v>7.508000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>5.411490989496952</v>
+        <v>5.42390049751244</v>
       </c>
       <c r="K12" t="n">
-        <v>2.312889947089944</v>
+        <v>2.404000000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>8.938839671439661</v>
+        <v>8.872000000000005</v>
       </c>
       <c r="M12" t="n">
-        <v>5.305162417955766</v>
+        <v>5.335064676616907</v>
       </c>
       <c r="N12" t="n">
-        <v>2.483209795868618</v>
+        <v>2.539999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>8.330320838420835</v>
+        <v>8.640000000000002</v>
       </c>
       <c r="P12" t="n">
-        <v>4.891410909194382</v>
+        <v>4.819761194029835</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.44468275058275</v>
+        <v>2.364000000000002</v>
       </c>
       <c r="R12" t="n">
-        <v>7.888096766488866</v>
+        <v>7.771999999999998</v>
       </c>
       <c r="S12" t="n">
-        <v>3.959800471062894</v>
+        <v>3.809393034825859</v>
       </c>
       <c r="T12" t="n">
-        <v>1.827450312533471</v>
+        <v>1.775999999999999</v>
       </c>
       <c r="U12" t="n">
-        <v>6.376459426658652</v>
+        <v>6.015999999999996</v>
       </c>
       <c r="V12" t="n">
-        <v>2.181657068912285</v>
+        <v>2.328736318407952</v>
       </c>
       <c r="W12" t="n">
-        <v>0.868502808302808</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>3.893456421356421</v>
+        <v>3.952</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.5157304472752225</v>
+        <v>0.5306467661691536</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.001006880700998348</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.245997524697525</v>
+        <v>1.344</v>
       </c>
     </row>
     <row r="13">
@@ -1503,52 +1503,52 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>78.09776003867137</v>
+        <v>78.56354228855707</v>
       </c>
       <c r="H13" t="n">
-        <v>62.87150729238554</v>
+        <v>63.69600000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>89.93720242720248</v>
+        <v>90.27999999999993</v>
       </c>
       <c r="J13" t="n">
-        <v>10.74457791011274</v>
+        <v>10.92959203980098</v>
       </c>
       <c r="K13" t="n">
-        <v>3.744962678062679</v>
+        <v>3.888000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>19.11128571428571</v>
+        <v>19.28399999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7271737435869472</v>
+        <v>0.9904278606965171</v>
       </c>
       <c r="N13" t="n">
-        <v>0.003948227037700722</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3.437876828726829</v>
+        <v>3.644000000000002</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07126113469771063</v>
+        <v>0.1083582089552238</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6597832051619974</v>
+        <v>0.7800000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01071818420718694</v>
+        <v>0.01225870646766168</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1822289279348103</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>0.002193019275718948</v>
+        <v>0.002666666666666667</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0001885869934377397</v>
+        <v>0.0002388059701492536</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>28.54755996735884</v>
+        <v>28.88461691542274</v>
       </c>
       <c r="H14" t="n">
-        <v>15.37722898550727</v>
+        <v>15.79599999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>43.2510935286935</v>
+        <v>43.99200000000003</v>
       </c>
       <c r="J14" t="n">
-        <v>44.59606105810528</v>
+        <v>43.06706467661677</v>
       </c>
       <c r="K14" t="n">
-        <v>35.86530560071736</v>
+        <v>35.21600000000002</v>
       </c>
       <c r="L14" t="n">
-        <v>50.46409047619049</v>
+        <v>49.97999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>11.40058437983738</v>
+        <v>10.85243781094527</v>
       </c>
       <c r="N14" t="n">
-        <v>4.72735975544923</v>
+        <v>4.428</v>
       </c>
       <c r="O14" t="n">
-        <v>18.75171506405531</v>
+        <v>18.528</v>
       </c>
       <c r="P14" t="n">
-        <v>2.530982231698647</v>
+        <v>2.452597014925369</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1954707792207791</v>
+        <v>0.2879999999999998</v>
       </c>
       <c r="R14" t="n">
-        <v>6.17691058201058</v>
+        <v>5.956</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5530549672273551</v>
+        <v>0.5723184079601978</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="U14" t="n">
-        <v>2.155253968253969</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1114972913211719</v>
+        <v>0.1289552238805971</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6400000000000005</v>
+        <v>0.6600000000000005</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.005605237035263369</v>
+        <v>0.009094527363184068</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0001390374331550802</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1488888888888886</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="15">
@@ -1669,67 +1669,67 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06899178762684756</v>
+        <v>0.05291542288557206</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02444444444444445</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3119471898471899</v>
+        <v>0.256</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07953201830121817</v>
+        <v>0.06815920398009946</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.388909015025222</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08401730903219501</v>
+        <v>0.07775124378109444</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3968052429052421</v>
+        <v>0.396</v>
       </c>
       <c r="P15" t="n">
-        <v>0.09125551275367133</v>
+        <v>0.07926368159203982</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5240000000000004</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08432860079389926</v>
+        <v>0.08883582089552224</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.4429999999999999</v>
+        <v>0.4560000000000002</v>
       </c>
       <c r="V15" t="n">
-        <v>0.05921523624707691</v>
+        <v>0.05259701492537304</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.3070955141476881</v>
+        <v>0.264</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01297013704569385</v>
+        <v>0.01068656716417908</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1743,76 +1743,76 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.004636815920398</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3465462330762591</v>
+        <v>0.3486567164179101</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01403653653653654</v>
+        <v>0.008</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8736412698412689</v>
+        <v>0.9560000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9863805285740597</v>
+        <v>0.9785074626865657</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1994031746031742</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>1.967921428571429</v>
+        <v>2.011999999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>1.393982400647076</v>
+        <v>1.372039800995023</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4142777777777769</v>
+        <v>0.4039999999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>2.586533814333816</v>
+        <v>2.679999999999998</v>
       </c>
       <c r="P16" t="n">
-        <v>1.501312634932783</v>
+        <v>1.494308457711441</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3025940115440112</v>
+        <v>0.2559999999999999</v>
       </c>
       <c r="R16" t="n">
-        <v>3.219981866281862</v>
+        <v>3.188</v>
       </c>
       <c r="S16" t="n">
-        <v>1.404125728141399</v>
+        <v>1.405174129353233</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3903091871091863</v>
+        <v>0.396</v>
       </c>
       <c r="U16" t="n">
-        <v>2.753930835830835</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9846128379267678</v>
+        <v>0.9929552238805971</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1992777777777773</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>2.264100000000001</v>
+        <v>2.212000000000002</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2715719540824009</v>
+        <v>0.2702686567164171</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0005329768270944741</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.8015999999999983</v>
+        <v>0.7760000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.194936428966274</v>
+        <v>1.245174129353231</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2312222222222222</v>
+        <v>0.2919999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>2.575466666666662</v>
+        <v>2.668000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>4.017459812050853</v>
+        <v>4.282129353233816</v>
       </c>
       <c r="H17" t="n">
-        <v>1.773911111111111</v>
+        <v>1.94</v>
       </c>
       <c r="I17" t="n">
-        <v>7.437600000000001</v>
+        <v>7.652</v>
       </c>
       <c r="J17" t="n">
-        <v>5.389367495854058</v>
+        <v>5.452875621890545</v>
       </c>
       <c r="K17" t="n">
-        <v>2.53255555555556</v>
+        <v>2.508</v>
       </c>
       <c r="L17" t="n">
-        <v>8.808001576201576</v>
+        <v>8.940000000000003</v>
       </c>
       <c r="M17" t="n">
-        <v>5.337903916810697</v>
+        <v>5.234567164179095</v>
       </c>
       <c r="N17" t="n">
-        <v>2.31562678933267</v>
+        <v>2.42</v>
       </c>
       <c r="O17" t="n">
-        <v>8.658340933140936</v>
+        <v>8.423999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>4.924926474623109</v>
+        <v>4.673950248756214</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.291406804306803</v>
+        <v>2.276000000000002</v>
       </c>
       <c r="R17" t="n">
-        <v>8.012574883498566</v>
+        <v>7.451999999999998</v>
       </c>
       <c r="S17" t="n">
-        <v>4.021320411045521</v>
+        <v>3.735044776119396</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95822703211019</v>
+        <v>1.867999999999999</v>
       </c>
       <c r="U17" t="n">
-        <v>6.408234364002009</v>
+        <v>5.723999999999998</v>
       </c>
       <c r="V17" t="n">
-        <v>2.237012723079381</v>
+        <v>2.269830845771139</v>
       </c>
       <c r="W17" t="n">
-        <v>0.9340473544973541</v>
+        <v>0.9280000000000002</v>
       </c>
       <c r="X17" t="n">
-        <v>3.81847546897547</v>
+        <v>3.927999999999999</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.5127972478875455</v>
+        <v>0.5130547263681575</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03515859557227845</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.205217123617123</v>
+        <v>1.244000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1921,64 +1921,64 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.801801801801802e-05</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002860143725815366</v>
+        <v>0.0032636815920398</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1899611361183496</v>
+        <v>0.1939104477611939</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6492031746031744</v>
+        <v>0.6640000000000006</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2851872305140951</v>
+        <v>0.2862885572139293</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.9746666666666666</v>
+        <v>0.9199999999999997</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4163220696238685</v>
+        <v>0.3016517412935315</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1386666666666667</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9310766148883793</v>
+        <v>0.9279999999999997</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2257701607771534</v>
+        <v>0.2269452736318398</v>
       </c>
       <c r="W18" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.7802</v>
+        <v>0.7440000000000002</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.07039524546763339</v>
+        <v>0.07004975124378099</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.3993444444444435</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12.67068601437254</v>
+        <v>13.45406965174127</v>
       </c>
       <c r="E19" t="n">
-        <v>6.261844444444444</v>
+        <v>6.392000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>21.60400000000005</v>
+        <v>21.57599999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>32.72505107794353</v>
+        <v>33.60013930348245</v>
       </c>
       <c r="H19" t="n">
-        <v>19.36415238095242</v>
+        <v>20.97599999999998</v>
       </c>
       <c r="I19" t="n">
-        <v>45.26680634920631</v>
+        <v>44.136</v>
       </c>
       <c r="J19" t="n">
-        <v>18.15766660692398</v>
+        <v>17.99745273631839</v>
       </c>
       <c r="K19" t="n">
-        <v>13.51642222222223</v>
+        <v>13.12</v>
       </c>
       <c r="L19" t="n">
-        <v>22.62417193362193</v>
+        <v>22.84000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>8.401622977822919</v>
+        <v>7.928577114427855</v>
       </c>
       <c r="N19" t="n">
-        <v>4.496953355188777</v>
+        <v>3.528</v>
       </c>
       <c r="O19" t="n">
-        <v>13.44605730560728</v>
+        <v>12.456</v>
       </c>
       <c r="P19" t="n">
-        <v>3.829134414640282</v>
+        <v>3.210945273631826</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9363800085109544</v>
+        <v>0.7160000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>7.808225134463308</v>
+        <v>7.007999999999999</v>
       </c>
       <c r="S19" t="n">
-        <v>1.375301266036339</v>
+        <v>1.279462686567164</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01551746031746032</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.530521356421357</v>
+        <v>3.668</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4402100332871463</v>
+        <v>0.4205771144278592</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.603973015873016</v>
+        <v>1.488</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.05243031272210359</v>
+        <v>0.04750248756218892</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2829835978835978</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2983580036326297</v>
+        <v>0.2726766169154223</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8419777777777759</v>
+        <v>0.8479999999999995</v>
       </c>
       <c r="G20" t="n">
-        <v>1.015894182047912</v>
+        <v>0.9855323383084563</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1787555555555552</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>2.089758789358789</v>
+        <v>1.947999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>1.36041648300106</v>
+        <v>1.367402985074627</v>
       </c>
       <c r="K20" t="n">
-        <v>0.32210202020202</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>2.705484071484069</v>
+        <v>2.723999999999998</v>
       </c>
       <c r="M20" t="n">
-        <v>1.514239409402095</v>
+        <v>1.521771144278607</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4191111111111104</v>
+        <v>0.524</v>
       </c>
       <c r="O20" t="n">
-        <v>2.980868464868465</v>
+        <v>2.976</v>
       </c>
       <c r="P20" t="n">
-        <v>1.519729731987193</v>
+        <v>1.570885572139302</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4613423520923519</v>
+        <v>0.524</v>
       </c>
       <c r="R20" t="n">
-        <v>3.155624867724865</v>
+        <v>3.163999999999999</v>
       </c>
       <c r="S20" t="n">
-        <v>1.385316807846658</v>
+        <v>1.426786069651741</v>
       </c>
       <c r="T20" t="n">
-        <v>0.3079441077441075</v>
+        <v>0.324</v>
       </c>
       <c r="U20" t="n">
-        <v>2.724298512598511</v>
+        <v>2.763999999999998</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9499507611054878</v>
+        <v>0.9455920398009949</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1985555555555551</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>2.030261538461539</v>
+        <v>2.068000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2556204665704656</v>
+        <v>0.2646368159203965</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.7859333333333315</v>
+        <v>0.7600000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -2158,76 +2158,76 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.003820895522388048</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1917358210340664</v>
+        <v>0.1792835820895523</v>
       </c>
       <c r="H21" t="n">
-        <v>0.004857142857142858</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6901480889480888</v>
+        <v>0.7480000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2877752062015734</v>
+        <v>0.2758407960198992</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8595035578456627</v>
+        <v>0.8319999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3232259936924764</v>
+        <v>0.3327363184079591</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9894444444444446</v>
+        <v>0.9919999999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3319394964488236</v>
+        <v>0.3223482587064667</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.9755333333333333</v>
+        <v>0.856</v>
       </c>
       <c r="S21" t="n">
-        <v>0.3378443409271753</v>
+        <v>0.3214328358208939</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.029492929292929</v>
+        <v>0.98</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2367157157933267</v>
+        <v>0.2360796019900482</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.7730792485120659</v>
+        <v>0.7600000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.07395950403935472</v>
+        <v>0.07295522388059694</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.3993333333333324</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2259,55 +2259,55 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>86.33789873415682</v>
+        <v>88.39900497512426</v>
       </c>
       <c r="K22" t="n">
-        <v>75.54851154401157</v>
+        <v>77.25200000000005</v>
       </c>
       <c r="L22" t="n">
-        <v>93.40819312427406</v>
+        <v>95.108</v>
       </c>
       <c r="M22" t="n">
-        <v>4.128451457000703</v>
+        <v>4.233512437810939</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7371952861952854</v>
+        <v>0.7880000000000007</v>
       </c>
       <c r="O22" t="n">
-        <v>10.53635767195769</v>
+        <v>10.71999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1644454007021169</v>
+        <v>0.177910447761194</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8356215488215476</v>
+        <v>0.9079999999999996</v>
       </c>
       <c r="S22" t="n">
-        <v>0.006215416879523756</v>
+        <v>0.006985074626865665</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1055333333333334</v>
+        <v>0.07600000000000003</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0006551869445877664</v>
+        <v>0.001094527363184079</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.00488888888888889</v>
+        <v>0.008</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.160862354892205e-05</v>
+        <v>3.98009950248756e-05</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.001377777777777778</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0499864279597963</v>
+        <v>0.03942288557213922</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3053814814814815</v>
+        <v>0.2439999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06465436276726878</v>
+        <v>0.06857711442786059</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002451851851851852</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3879912383912378</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06775402646485254</v>
+        <v>0.05934328358208953</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3697076586038656</v>
+        <v>0.352</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07712194594846269</v>
+        <v>0.07810945273631834</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3791100048100042</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>0.08512081082114316</v>
+        <v>0.08636815920397996</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4013333333333324</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>0.08076696058225899</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.452</v>
+        <v>0.4079999999999999</v>
       </c>
       <c r="V23" t="n">
-        <v>0.05827357938518861</v>
+        <v>0.05783084577114424</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.3429118540169692</v>
+        <v>0.352</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01698048899116692</v>
+        <v>0.01683582089552237</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -2407,76 +2407,76 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.004636815920398</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3761847096518734</v>
+        <v>0.3579104477611935</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0650089947089947</v>
+        <v>0.032</v>
       </c>
       <c r="I24" t="n">
-        <v>0.877768253968253</v>
+        <v>0.972</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9867307773302787</v>
+        <v>0.9816318407960186</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2030476190476186</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>1.96592142857143</v>
+        <v>2.004</v>
       </c>
       <c r="M24" t="n">
-        <v>1.399551333759293</v>
+        <v>1.376298507462685</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5175666666666664</v>
+        <v>0.4039999999999999</v>
       </c>
       <c r="O24" t="n">
-        <v>2.586724290524292</v>
+        <v>2.663999999999998</v>
       </c>
       <c r="P24" t="n">
-        <v>1.523730541432033</v>
+        <v>1.489552238805969</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3299273448773445</v>
+        <v>0.2599999999999999</v>
       </c>
       <c r="R24" t="n">
-        <v>3.159181866281863</v>
+        <v>3.144</v>
       </c>
       <c r="S24" t="n">
-        <v>1.416200143941188</v>
+        <v>1.403422885572138</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3813993265993259</v>
+        <v>0.396</v>
       </c>
       <c r="U24" t="n">
-        <v>2.762430835830835</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9565769196346302</v>
+        <v>0.9804776119402986</v>
       </c>
       <c r="W24" t="n">
-        <v>0.1992777777777773</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>2.245433333333334</v>
+        <v>2.164000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.2720140531110671</v>
+        <v>0.268756218905472</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0005329768270944741</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.8009333333333315</v>
+        <v>0.7760000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -2502,64 +2502,64 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.801801801801802e-05</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2727042445301139</v>
+        <v>0.2650149253731332</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7385904761904757</v>
+        <v>0.6640000000000005</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9312942272763158</v>
+        <v>0.9151840796019893</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1761154068154065</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>1.957298412698414</v>
+        <v>1.915999999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>1.293150414593698</v>
+        <v>1.269910447761194</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2042818181818178</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>2.580065873015871</v>
+        <v>2.548000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>1.313915056750877</v>
+        <v>1.293353233830844</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3491213509801741</v>
+        <v>0.352</v>
       </c>
       <c r="U25" t="n">
-        <v>2.709895238095237</v>
+        <v>2.643999999999998</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9912512090961307</v>
+        <v>0.9877810945273616</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1901777777777773</v>
+        <v>0.188</v>
       </c>
       <c r="X25" t="n">
-        <v>2.206969050247997</v>
+        <v>2.236000000000002</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2861313282350588</v>
+        <v>0.2901890547263676</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0001851851851851852</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.8624196729196721</v>
+        <v>0.8439999999999996</v>
       </c>
     </row>
     <row r="26">
@@ -2573,76 +2573,76 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.00266666666666666</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="G26" t="n">
-        <v>0.181733644327412</v>
+        <v>0.1785074626865671</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0006031746031746032</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6557076978576979</v>
+        <v>0.5960000000000004</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2800085753735991</v>
+        <v>0.2661094527363171</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8352369244790294</v>
+        <v>0.8319999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3169171384975515</v>
+        <v>0.3130746268656711</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9867777777777779</v>
+        <v>0.988</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3347330916043594</v>
+        <v>0.3362985074626857</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.9942</v>
+        <v>0.988</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3379467425333084</v>
+        <v>0.3480199004975112</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.871297771509536</v>
+        <v>0.9479999999999998</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2529081126262712</v>
+        <v>0.2575920398009947</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.7416526718207834</v>
+        <v>0.7600000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06550189028771115</v>
+        <v>0.06833830845771141</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.3623470603470598</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -2656,70 +2656,70 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>77.41855389718069</v>
+        <v>77.45367164179109</v>
       </c>
       <c r="E27" t="n">
-        <v>62.06333333333323</v>
+        <v>61.46400000000004</v>
       </c>
       <c r="F27" t="n">
-        <v>88.93866666666672</v>
+        <v>88.85599999999998</v>
       </c>
       <c r="G27" t="n">
-        <v>11.3896572692095</v>
+        <v>11.84069651741291</v>
       </c>
       <c r="H27" t="n">
-        <v>4.621777777777783</v>
+        <v>4.775999999999995</v>
       </c>
       <c r="I27" t="n">
-        <v>21.28444444444448</v>
+        <v>21.70799999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>1.196534923267259</v>
+        <v>1.221850746268656</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04582962962962964</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>4.312632539682539</v>
+        <v>4.332000000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3238207219947666</v>
+        <v>0.1730149253731343</v>
       </c>
       <c r="N27" t="n">
-        <v>0.003031560371034055</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.31983435745541</v>
+        <v>0.9279999999999997</v>
       </c>
       <c r="P27" t="n">
-        <v>0.04850837118732729</v>
+        <v>0.02481592039800992</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3504417484705412</v>
+        <v>0.2599999999999998</v>
       </c>
       <c r="S27" t="n">
-        <v>0.004783467238141614</v>
+        <v>0.005930348258706468</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.002873949579831933</v>
+        <v>0.024</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0003043883481210912</v>
+        <v>0.0004179104477611932</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.848068736128436e-05</v>
+        <v>0.0001194029850746268</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -2748,67 +2748,67 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02098839137645107</v>
+        <v>0.1352039800995024</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008</v>
+        <v>0.048</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="J28" t="n">
-        <v>10.16064793492852</v>
+        <v>10.23733333333334</v>
       </c>
       <c r="K28" t="n">
-        <v>4.480830591630583</v>
+        <v>4.480000000000002</v>
       </c>
       <c r="L28" t="n">
-        <v>17.24918831168829</v>
+        <v>17.52000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>14.66630301905575</v>
+        <v>14.86137313432834</v>
       </c>
       <c r="N28" t="n">
-        <v>7.730420104182016</v>
+        <v>7.784000000000007</v>
       </c>
       <c r="O28" t="n">
-        <v>22.58206853906327</v>
+        <v>22.104</v>
       </c>
       <c r="P28" t="n">
-        <v>12.17501198595829</v>
+        <v>12.1950646766169</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.841018451227659</v>
+        <v>7.568000000000008</v>
       </c>
       <c r="R28" t="n">
-        <v>16.43612432692867</v>
+        <v>16.30399999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>7.926031549462136</v>
+        <v>8.117731343283564</v>
       </c>
       <c r="T28" t="n">
-        <v>5.055975456025455</v>
+        <v>5.351999999999999</v>
       </c>
       <c r="U28" t="n">
-        <v>10.3911121684748</v>
+        <v>11.136</v>
       </c>
       <c r="V28" t="n">
-        <v>4.009120110064213</v>
+        <v>3.954746268656701</v>
       </c>
       <c r="W28" t="n">
-        <v>2.247185714285713</v>
+        <v>2.304000000000002</v>
       </c>
       <c r="X28" t="n">
-        <v>5.991892496392498</v>
+        <v>5.840000000000003</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.793527199141377</v>
+        <v>0.7770746268656704</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.1620401939191411</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.750889782325231</v>
+        <v>1.647999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06849810239186879</v>
+        <v>0.05860696517412933</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4010026455026452</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06944081501043745</v>
+        <v>0.0751044776119402</v>
       </c>
       <c r="H29" t="n">
-        <v>0.002407407407407407</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3878737780737775</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07844339428089757</v>
+        <v>0.08640796019900483</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3561715861366012</v>
+        <v>0.3639999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09445837234555508</v>
+        <v>0.09763184079601984</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.398005242905242</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="P29" t="n">
-        <v>0.08588634914260775</v>
+        <v>0.08716417910447745</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4079999999999991</v>
+        <v>0.412</v>
       </c>
       <c r="S29" t="n">
-        <v>0.08269657071783926</v>
+        <v>0.0863283582089551</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4039999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="V29" t="n">
-        <v>0.05742506818792562</v>
+        <v>0.05683582089552229</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.3696399585921325</v>
+        <v>0.3639999999999999</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02163892964902622</v>
+        <v>0.02545273631840795</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -2905,76 +2905,76 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.01773134328358208</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="G30" t="n">
-        <v>2.503680260701142</v>
+        <v>2.688776119402968</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8163767676767677</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>5.232888888888891</v>
+        <v>5.227999999999998</v>
       </c>
       <c r="J30" t="n">
-        <v>4.959753344389156</v>
+        <v>4.956696517412928</v>
       </c>
       <c r="K30" t="n">
-        <v>2.483222222222225</v>
+        <v>2.444</v>
       </c>
       <c r="L30" t="n">
-        <v>8.754079353979355</v>
+        <v>8.736000000000002</v>
       </c>
       <c r="M30" t="n">
-        <v>5.375310702267729</v>
+        <v>5.453313432835805</v>
       </c>
       <c r="N30" t="n">
-        <v>2.300315678221558</v>
+        <v>2.348000000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>9.175349972249972</v>
+        <v>9.087999999999997</v>
       </c>
       <c r="P30" t="n">
-        <v>5.108905281595572</v>
+        <v>5.001870646766162</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.30152347097347</v>
+        <v>2.284000000000002</v>
       </c>
       <c r="R30" t="n">
-        <v>8.455589806043056</v>
+        <v>8.024000000000001</v>
       </c>
       <c r="S30" t="n">
-        <v>4.161982816012033</v>
+        <v>4.088079601990037</v>
       </c>
       <c r="T30" t="n">
-        <v>1.940814958998117</v>
+        <v>1.919999999999999</v>
       </c>
       <c r="U30" t="n">
-        <v>6.80846863528628</v>
+        <v>6.559999999999999</v>
       </c>
       <c r="V30" t="n">
-        <v>2.494252230542944</v>
+        <v>2.465930348258695</v>
       </c>
       <c r="W30" t="n">
-        <v>1.042101199631695</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>4.284447974247975</v>
+        <v>4.211999999999998</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.619164554909857</v>
+        <v>0.6219900497512433</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.03573002414370702</v>
+        <v>0.004</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.372060448153773</v>
+        <v>1.396</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>55.18622314952407</v>
+        <v>53.40993034825865</v>
       </c>
       <c r="K31" t="n">
-        <v>37.36991721981718</v>
+        <v>34.30000000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>72.46789177489184</v>
+        <v>71.696</v>
       </c>
       <c r="M31" t="n">
-        <v>23.71827701802523</v>
+        <v>23.82495522388054</v>
       </c>
       <c r="N31" t="n">
-        <v>15.45608941798941</v>
+        <v>15.42400000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>30.51734632404631</v>
+        <v>30.65199999999998</v>
       </c>
       <c r="P31" t="n">
-        <v>5.488638047855952</v>
+        <v>5.844597014925365</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.494657142857145</v>
+        <v>1.608000000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>12.27202954942662</v>
+        <v>12.79599999999999</v>
       </c>
       <c r="S31" t="n">
-        <v>1.216241791044777</v>
+        <v>1.385034825870647</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02266666666666667</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="U31" t="n">
-        <v>3.608666666666669</v>
+        <v>3.736000000000002</v>
       </c>
       <c r="V31" t="n">
-        <v>0.2599071310116073</v>
+        <v>0.322666666666666</v>
       </c>
       <c r="W31" t="n">
-        <v>0.001333333333333334</v>
+        <v>0.008</v>
       </c>
       <c r="X31" t="n">
-        <v>1.2828</v>
+        <v>1.392</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02112935323383076</v>
+        <v>0.02989054726368149</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0003148148148148148</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.2013333333333328</v>
+        <v>0.2239999999999998</v>
       </c>
     </row>
     <row r="32">
@@ -3089,58 +3089,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>53.31550571359178</v>
+        <v>49.98001990049745</v>
       </c>
       <c r="K32" t="n">
-        <v>34.71411375661376</v>
+        <v>33.12</v>
       </c>
       <c r="L32" t="n">
-        <v>70.33061003832766</v>
+        <v>65.52800000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>37.51416346047532</v>
+        <v>36.46202985074621</v>
       </c>
       <c r="N32" t="n">
-        <v>27.19190476190475</v>
+        <v>26.176</v>
       </c>
       <c r="O32" t="n">
-        <v>46.09713299663301</v>
+        <v>45.724</v>
       </c>
       <c r="P32" t="n">
-        <v>2.999831897869944</v>
+        <v>3.327741293532326</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4207619047619041</v>
+        <v>0.5399999999999996</v>
       </c>
       <c r="R32" t="n">
-        <v>8.412357142857143</v>
+        <v>8.776000000000003</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2402375848032554</v>
+        <v>0.3313830845771129</v>
       </c>
       <c r="T32" t="n">
-        <v>0.004000000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="U32" t="n">
-        <v>1.1269</v>
+        <v>1.480000000000001</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01989643054568419</v>
+        <v>0.03498507462686554</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.1928666666666667</v>
+        <v>0.2519999999999998</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0006184017002752271</v>
+        <v>0.001671641791044771</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0009333333333333332</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>28.13432365684787</v>
+        <v>28.52754228855706</v>
       </c>
       <c r="H33" t="n">
-        <v>15.49156231884059</v>
+        <v>16.116</v>
       </c>
       <c r="I33" t="n">
-        <v>42.45420463980459</v>
+        <v>42.77200000000003</v>
       </c>
       <c r="J33" t="n">
-        <v>44.40573269989633</v>
+        <v>42.99285572139294</v>
       </c>
       <c r="K33" t="n">
-        <v>35.37548232029405</v>
+        <v>34.56400000000001</v>
       </c>
       <c r="L33" t="n">
-        <v>50.46809047619049</v>
+        <v>50.29599999999999</v>
       </c>
       <c r="M33" t="n">
-        <v>11.50085768000322</v>
+        <v>11.05820895522388</v>
       </c>
       <c r="N33" t="n">
-        <v>5.011329596719071</v>
+        <v>5.036</v>
       </c>
       <c r="O33" t="n">
-        <v>18.67016691590717</v>
+        <v>18.33200000000001</v>
       </c>
       <c r="P33" t="n">
-        <v>2.569658019426675</v>
+        <v>2.512139303482585</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2374707792207791</v>
+        <v>0.348</v>
       </c>
       <c r="R33" t="n">
-        <v>6.146243915343917</v>
+        <v>5.879999999999996</v>
       </c>
       <c r="S33" t="n">
-        <v>0.5504785161494113</v>
+        <v>0.5854925373134311</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="U33" t="n">
-        <v>2.020587301587301</v>
+        <v>1.919999999999999</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1129771144278606</v>
+        <v>0.1299900497512438</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.6880000000000002</v>
+        <v>0.7120000000000002</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.005964704488760677</v>
+        <v>0.009353233830845768</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0001390374331550802</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.1539999999999997</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>9.682859038142604</v>
+        <v>9.960975124378088</v>
       </c>
       <c r="E34" t="n">
-        <v>4.244888888888881</v>
+        <v>4.520000000000004</v>
       </c>
       <c r="F34" t="n">
-        <v>16.12399999999999</v>
+        <v>16.34800000000002</v>
       </c>
       <c r="G34" t="n">
-        <v>15.08488838347941</v>
+        <v>15.34199004975125</v>
       </c>
       <c r="H34" t="n">
-        <v>8.084266666666672</v>
+        <v>8.327999999999998</v>
       </c>
       <c r="I34" t="n">
-        <v>23.23746666666669</v>
+        <v>23.32</v>
       </c>
       <c r="J34" t="n">
-        <v>12.73352144041697</v>
+        <v>12.74503482587065</v>
       </c>
       <c r="K34" t="n">
-        <v>7.96706368446368</v>
+        <v>7.952000000000003</v>
       </c>
       <c r="L34" t="n">
-        <v>17.40808644688644</v>
+        <v>17.46</v>
       </c>
       <c r="M34" t="n">
-        <v>9.001097485715659</v>
+        <v>9.082885572139293</v>
       </c>
       <c r="N34" t="n">
-        <v>5.84436636496591</v>
+        <v>5.964000000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>11.82461594367945</v>
+        <v>12.46000000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>6.538318312725046</v>
+        <v>5.878527363184069</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.958287406396042</v>
+        <v>3.371999999999998</v>
       </c>
       <c r="R34" t="n">
-        <v>8.619114695894583</v>
+        <v>8.752000000000004</v>
       </c>
       <c r="S34" t="n">
-        <v>3.75946702867336</v>
+        <v>3.53112437810944</v>
       </c>
       <c r="T34" t="n">
-        <v>1.6558048988049</v>
+        <v>1.484</v>
       </c>
       <c r="U34" t="n">
-        <v>5.628725062656644</v>
+        <v>5.576000000000001</v>
       </c>
       <c r="V34" t="n">
-        <v>1.811059168342249</v>
+        <v>1.68360199004975</v>
       </c>
       <c r="W34" t="n">
-        <v>0.5530880952380959</v>
+        <v>0.4719999999999998</v>
       </c>
       <c r="X34" t="n">
-        <v>3.39827619047619</v>
+        <v>3.212</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.3394006041222455</v>
+        <v>0.3194626865671629</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0003619047619047619</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.017777241277241</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3320,76 +3320,76 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.013910447761194</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.04800000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6915322636088793</v>
+        <v>0.6816716417910433</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07684179894179889</v>
+        <v>0.1320000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>1.559239886039885</v>
+        <v>1.572</v>
       </c>
       <c r="J35" t="n">
-        <v>1.16602994024586</v>
+        <v>1.180477611940298</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2103809523809519</v>
+        <v>0.212</v>
       </c>
       <c r="L35" t="n">
-        <v>2.453141269841271</v>
+        <v>2.448000000000001</v>
       </c>
       <c r="M35" t="n">
-        <v>1.463427071620106</v>
+        <v>1.465194029850746</v>
       </c>
       <c r="N35" t="n">
-        <v>0.5175666666666664</v>
+        <v>0.412</v>
       </c>
       <c r="O35" t="n">
-        <v>2.905882750582752</v>
+        <v>2.867999999999999</v>
       </c>
       <c r="P35" t="n">
-        <v>1.524669181564703</v>
+        <v>1.49976119402985</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.4574928571428569</v>
+        <v>0.408</v>
       </c>
       <c r="R35" t="n">
-        <v>3.145470755170753</v>
+        <v>3.084000000000001</v>
       </c>
       <c r="S35" t="n">
-        <v>1.404564097373052</v>
+        <v>1.386407960199004</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3795104377104371</v>
+        <v>0.396</v>
       </c>
       <c r="U35" t="n">
-        <v>2.777465179265179</v>
+        <v>2.803999999999999</v>
       </c>
       <c r="V35" t="n">
-        <v>0.929581752612597</v>
+        <v>0.9167562189054722</v>
       </c>
       <c r="W35" t="n">
-        <v>0.197944444444444</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="X35" t="n">
-        <v>2.061661538461539</v>
+        <v>1.931999999999999</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.2631988685720017</v>
+        <v>0.2558805970149245</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.7976666666666649</v>
+        <v>0.7839999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.509537708283966</v>
+        <v>3.38445771144278</v>
       </c>
       <c r="K36" t="n">
-        <v>1.272020202020202</v>
+        <v>1.260000000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>6.242666666666662</v>
+        <v>6.284</v>
       </c>
       <c r="M36" t="n">
-        <v>14.37281757877282</v>
+        <v>13.91846766169153</v>
       </c>
       <c r="N36" t="n">
-        <v>7.566888888888888</v>
+        <v>7.147999999999996</v>
       </c>
       <c r="O36" t="n">
-        <v>22.26266666666665</v>
+        <v>21.956</v>
       </c>
       <c r="P36" t="n">
-        <v>14.29826205562883</v>
+        <v>13.47655721393034</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.095677608012902</v>
+        <v>7.98</v>
       </c>
       <c r="R36" t="n">
-        <v>20.55924974453936</v>
+        <v>19.34000000000001</v>
       </c>
       <c r="S36" t="n">
-        <v>9.393391794208775</v>
+        <v>9.751144278606951</v>
       </c>
       <c r="T36" t="n">
-        <v>6.173932082732081</v>
+        <v>6.407999999999999</v>
       </c>
       <c r="U36" t="n">
-        <v>12.76549891395155</v>
+        <v>13.37999999999999</v>
       </c>
       <c r="V36" t="n">
-        <v>4.743814163852374</v>
+        <v>4.932935323383069</v>
       </c>
       <c r="W36" t="n">
-        <v>2.916092063492063</v>
+        <v>3.008</v>
       </c>
       <c r="X36" t="n">
-        <v>6.930539793539794</v>
+        <v>7.183999999999997</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.9593722383752222</v>
+        <v>0.9755422885572131</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.2087894002683473</v>
+        <v>0.2079999999999999</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.837171426286132</v>
+        <v>1.972</v>
       </c>
     </row>
     <row r="37">
@@ -3486,34 +3486,34 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1231023457254652</v>
+        <v>0.1115024875621888</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4386912938912937</v>
+        <v>0.4600000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2317060045586093</v>
+        <v>0.2510248756218899</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002007407407407408</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7787465867465859</v>
+        <v>0.8079999999999998</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2917312124856893</v>
+        <v>0.2987860696517406</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9100632145632143</v>
+        <v>0.8880000000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3504949542073905</v>
+        <v>0.3508059701492524</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3522,40 +3522,40 @@
         <v>0.996</v>
       </c>
       <c r="P37" t="n">
-        <v>0.3417393331240334</v>
+        <v>0.3482189054726358</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="S37" t="n">
-        <v>0.3399900202892727</v>
+        <v>0.342746268656715</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.9705515399633045</v>
+        <v>1.024</v>
       </c>
       <c r="V37" t="n">
-        <v>0.2440242213655141</v>
+        <v>0.245552238805969</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.7741377289377289</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.07624401549252283</v>
+        <v>0.07777114427860683</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.3999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>27.98212271973453</v>
+        <v>26.39020895522381</v>
       </c>
       <c r="E38" t="n">
-        <v>15.15333333333332</v>
+        <v>13.868</v>
       </c>
       <c r="F38" t="n">
-        <v>41.80533333333332</v>
+        <v>39.26000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>44.05820034746888</v>
+        <v>43.4315820895521</v>
       </c>
       <c r="H38" t="n">
-        <v>36.61406073153901</v>
+        <v>36.148</v>
       </c>
       <c r="I38" t="n">
-        <v>49.69936719576721</v>
+        <v>49.45599999999997</v>
       </c>
       <c r="J38" t="n">
-        <v>11.39200044566676</v>
+        <v>11.7307263681592</v>
       </c>
       <c r="K38" t="n">
-        <v>5.323444444444451</v>
+        <v>5.195999999999997</v>
       </c>
       <c r="L38" t="n">
-        <v>19.32569610389612</v>
+        <v>18.74000000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>2.526334886320273</v>
+        <v>2.932477611940288</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4795446717312042</v>
+        <v>0.5239999999999995</v>
       </c>
       <c r="O38" t="n">
-        <v>6.371249702149702</v>
+        <v>6.831999999999995</v>
       </c>
       <c r="P38" t="n">
-        <v>0.5401837632080749</v>
+        <v>0.81462686567164</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.002473160173160173</v>
+        <v>0.076</v>
       </c>
       <c r="R38" t="n">
-        <v>2.13669696969697</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="S38" t="n">
-        <v>0.123742295128862</v>
+        <v>0.219960199004975</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.8473238095238094</v>
+        <v>1.015999999999999</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02819321645739549</v>
+        <v>0.05406965174129338</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.2276</v>
+        <v>0.3319999999999997</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.003524378109452729</v>
+        <v>0.006208955223880585</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.01022222222222222</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2.424598910210835</v>
+        <v>2.463004975124363</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9100380952380955</v>
+        <v>0.9440000000000002</v>
       </c>
       <c r="F39" t="n">
-        <v>4.744888888888886</v>
+        <v>4.728000000000002</v>
       </c>
       <c r="G39" t="n">
-        <v>4.716434494195669</v>
+        <v>4.809432835820881</v>
       </c>
       <c r="H39" t="n">
-        <v>2.134666666666668</v>
+        <v>2.208000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>7.995288888888892</v>
+        <v>8.175999999999995</v>
       </c>
       <c r="J39" t="n">
-        <v>5.404262686567154</v>
+        <v>5.410388059701485</v>
       </c>
       <c r="K39" t="n">
-        <v>2.298934391534388</v>
+        <v>2.264000000000002</v>
       </c>
       <c r="L39" t="n">
-        <v>9.127555555555544</v>
+        <v>9.207999999999997</v>
       </c>
       <c r="M39" t="n">
-        <v>5.044549193187499</v>
+        <v>5.000756218905461</v>
       </c>
       <c r="N39" t="n">
-        <v>2.48285582761465</v>
+        <v>2.535999999999998</v>
       </c>
       <c r="O39" t="n">
-        <v>8.247278103378102</v>
+        <v>8.399999999999995</v>
       </c>
       <c r="P39" t="n">
-        <v>4.725490771786184</v>
+        <v>4.575482587064658</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.398603457653457</v>
+        <v>2.264000000000002</v>
       </c>
       <c r="R39" t="n">
-        <v>7.53621280405754</v>
+        <v>7.16</v>
       </c>
       <c r="S39" t="n">
-        <v>3.531118756506057</v>
+        <v>3.521472636815904</v>
       </c>
       <c r="T39" t="n">
-        <v>1.5070822991823</v>
+        <v>1.495999999999999</v>
       </c>
       <c r="U39" t="n">
-        <v>5.556058395989976</v>
+        <v>5.560000000000002</v>
       </c>
       <c r="V39" t="n">
-        <v>1.922283558398478</v>
+        <v>2.086248756218894</v>
       </c>
       <c r="W39" t="n">
-        <v>0.6451555555555554</v>
+        <v>0.8</v>
       </c>
       <c r="X39" t="n">
-        <v>3.62335238095238</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.4805173971412764</v>
+        <v>0.5035621890547248</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.001006880700998348</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.184655052355052</v>
+        <v>1.232000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3744,67 +3744,67 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.002547263681592032</v>
       </c>
       <c r="H40" t="n">
-        <v>1.801801801801802e-05</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2005083519651666</v>
+        <v>0.1951243781094513</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6717332812268569</v>
+        <v>0.7280000000000001</v>
       </c>
       <c r="M40" t="n">
-        <v>0.2795596654933121</v>
+        <v>0.2688756218905464</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.7990860700301859</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="P40" t="n">
-        <v>0.2971665530848361</v>
+        <v>0.3081592039800993</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8145555555555538</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="S40" t="n">
-        <v>0.3161102871829815</v>
+        <v>0.3030646766169138</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.8296571425306719</v>
+        <v>0.8079999999999998</v>
       </c>
       <c r="V40" t="n">
-        <v>0.222599482395281</v>
+        <v>0.2162587064676609</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.668384262452374</v>
+        <v>0.6160000000000005</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.06266620703784877</v>
+        <v>0.06049751243781085</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.000339031339031339</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.3477803936803933</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="41">
@@ -3836,58 +3836,58 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1179834162520728</v>
+        <v>0.2095721393034824</v>
       </c>
       <c r="K41" t="n">
         <v>0.068</v>
       </c>
       <c r="L41" t="n">
-        <v>0.198</v>
+        <v>0.3880000000000001</v>
       </c>
       <c r="M41" t="n">
-        <v>9.946945273631831</v>
+        <v>10.11247761194029</v>
       </c>
       <c r="N41" t="n">
-        <v>4.496444444444439</v>
+        <v>4.616000000000002</v>
       </c>
       <c r="O41" t="n">
-        <v>17.1272857142857</v>
+        <v>16.82800000000001</v>
       </c>
       <c r="P41" t="n">
-        <v>14.72426462133774</v>
+        <v>14.41820895522388</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.633322799422796</v>
+        <v>7.587999999999997</v>
       </c>
       <c r="R41" t="n">
-        <v>22.51423333333333</v>
+        <v>22.188</v>
       </c>
       <c r="S41" t="n">
-        <v>11.30565773513385</v>
+        <v>11.15058706467662</v>
       </c>
       <c r="T41" t="n">
-        <v>7.000068253968255</v>
+        <v>6.820000000000005</v>
       </c>
       <c r="U41" t="n">
-        <v>15.8000194028194</v>
+        <v>15.704</v>
       </c>
       <c r="V41" t="n">
-        <v>5.764195245992251</v>
+        <v>5.789810945273623</v>
       </c>
       <c r="W41" t="n">
-        <v>3.482714285714287</v>
+        <v>3.448</v>
       </c>
       <c r="X41" t="n">
-        <v>7.982790476190477</v>
+        <v>8.112</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.154747476901206</v>
+        <v>1.157910447761194</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.2476047619047617</v>
+        <v>0.2519999999999999</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.245176767676766</v>
+        <v>2.264000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>28.6771505576973</v>
+        <v>29.30919402985068</v>
       </c>
       <c r="H42" t="n">
-        <v>15.39397460317461</v>
+        <v>15.832</v>
       </c>
       <c r="I42" t="n">
-        <v>43.12091375661374</v>
+        <v>43.716</v>
       </c>
       <c r="J42" t="n">
-        <v>26.36533832768515</v>
+        <v>26.41998009950242</v>
       </c>
       <c r="K42" t="n">
-        <v>19.31558917748918</v>
+        <v>19.688</v>
       </c>
       <c r="L42" t="n">
-        <v>32.54753167388167</v>
+        <v>32.71999999999999</v>
       </c>
       <c r="M42" t="n">
-        <v>12.76779078579141</v>
+        <v>12.7732935323383</v>
       </c>
       <c r="N42" t="n">
-        <v>8.157153229947658</v>
+        <v>8.131999999999994</v>
       </c>
       <c r="O42" t="n">
-        <v>17.09062485329866</v>
+        <v>17.03600000000001</v>
       </c>
       <c r="P42" t="n">
-        <v>6.012507804763009</v>
+        <v>5.347024875621876</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.030906559737505</v>
+        <v>1.792</v>
       </c>
       <c r="R42" t="n">
-        <v>10.29549389291405</v>
+        <v>9.512000000000008</v>
       </c>
       <c r="S42" t="n">
-        <v>2.215429278212102</v>
+        <v>2.175482587064664</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2896878306878309</v>
+        <v>0.2719999999999999</v>
       </c>
       <c r="U42" t="n">
-        <v>4.989897835497834</v>
+        <v>4.872000000000002</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6805796677985729</v>
+        <v>0.6642189054726357</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>2.0387</v>
+        <v>2.088000000000001</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.08980900583661762</v>
+        <v>0.08374129353233824</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.3960835978835973</v>
+        <v>0.4039999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3984,76 +3984,76 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.01773134328358208</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="G43" t="n">
-        <v>2.503498723940501</v>
+        <v>2.687721393034809</v>
       </c>
       <c r="H43" t="n">
-        <v>0.817710101010101</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>5.210222222222225</v>
+        <v>5.223999999999998</v>
       </c>
       <c r="J43" t="n">
-        <v>4.944160751796565</v>
+        <v>4.960975124378102</v>
       </c>
       <c r="K43" t="n">
-        <v>2.488555555555558</v>
+        <v>2.448</v>
       </c>
       <c r="L43" t="n">
-        <v>8.750079353979354</v>
+        <v>8.736000000000002</v>
       </c>
       <c r="M43" t="n">
-        <v>5.401017727267788</v>
+        <v>5.461532338308442</v>
       </c>
       <c r="N43" t="n">
-        <v>2.376517236793706</v>
+        <v>2.360000000000001</v>
       </c>
       <c r="O43" t="n">
-        <v>9.143016638916642</v>
+        <v>9.091999999999997</v>
       </c>
       <c r="P43" t="n">
-        <v>5.255785847896386</v>
+        <v>5.004278606965167</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.307106432456431</v>
+        <v>2.280000000000002</v>
       </c>
       <c r="R43" t="n">
-        <v>8.652716821293598</v>
+        <v>8.028</v>
       </c>
       <c r="S43" t="n">
-        <v>4.234558144899808</v>
+        <v>4.094447761194018</v>
       </c>
       <c r="T43" t="n">
-        <v>1.966833646628569</v>
+        <v>1.915999999999999</v>
       </c>
       <c r="U43" t="n">
-        <v>6.942079441147087</v>
+        <v>6.583999999999999</v>
       </c>
       <c r="V43" t="n">
-        <v>2.505900083868907</v>
+        <v>2.468039800995014</v>
       </c>
       <c r="W43" t="n">
-        <v>1.08178739491789</v>
+        <v>1.004</v>
       </c>
       <c r="X43" t="n">
-        <v>4.291947974247975</v>
+        <v>4.211999999999998</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.6184204184493025</v>
+        <v>0.6224079601990045</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.02353348734717021</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.37481732646065</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="44">
@@ -4088,55 +4088,55 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>28.60998341625195</v>
+        <v>28.98095522388046</v>
       </c>
       <c r="N44" t="n">
-        <v>15.56666666666666</v>
+        <v>15.74800000000001</v>
       </c>
       <c r="O44" t="n">
-        <v>41.93288888888899</v>
+        <v>42.65199999999997</v>
       </c>
       <c r="P44" t="n">
-        <v>25.24068004483065</v>
+        <v>25.5840597014924</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.21865714285716</v>
+        <v>18.77199999999999</v>
       </c>
       <c r="R44" t="n">
-        <v>31.19266083546085</v>
+        <v>31.504</v>
       </c>
       <c r="S44" t="n">
-        <v>11.60913963515753</v>
+        <v>11.59834825870645</v>
       </c>
       <c r="T44" t="n">
-        <v>6.880966762866768</v>
+        <v>6.832000000000001</v>
       </c>
       <c r="U44" t="n">
-        <v>15.89945108225108</v>
+        <v>15.64</v>
       </c>
       <c r="V44" t="n">
-        <v>3.722905072520982</v>
+        <v>3.673651741293522</v>
       </c>
       <c r="W44" t="n">
-        <v>1.147866666666666</v>
+        <v>1.128000000000001</v>
       </c>
       <c r="X44" t="n">
-        <v>6.808400000000003</v>
+        <v>6.668000000000005</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.500820895522387</v>
+        <v>0.4974925373134314</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.344581144781146</v>
+        <v>1.336</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>26.73983416252067</v>
+        <v>27.73389054726357</v>
       </c>
       <c r="E45" t="n">
-        <v>15.11666666666668</v>
+        <v>15.26799999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>39.44799999999995</v>
+        <v>41.48400000000004</v>
       </c>
       <c r="G45" t="n">
-        <v>27.23103703703698</v>
+        <v>27.16250746268648</v>
       </c>
       <c r="H45" t="n">
-        <v>20.34433650793649</v>
+        <v>19.468</v>
       </c>
       <c r="I45" t="n">
-        <v>32.91337777777783</v>
+        <v>33.45199999999998</v>
       </c>
       <c r="J45" t="n">
-        <v>13.55267478480611</v>
+        <v>13.37737313432834</v>
       </c>
       <c r="K45" t="n">
-        <v>9.229911111111107</v>
+        <v>8.752000000000002</v>
       </c>
       <c r="L45" t="n">
-        <v>17.03512692307693</v>
+        <v>17.84000000000001</v>
       </c>
       <c r="M45" t="n">
-        <v>7.706253291638134</v>
+        <v>5.877273631840795</v>
       </c>
       <c r="N45" t="n">
-        <v>3.575571405951754</v>
+        <v>2.112000000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>11.32397996484347</v>
+        <v>10.24</v>
       </c>
       <c r="P45" t="n">
-        <v>3.149138268423251</v>
+        <v>2.485731343283571</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.8079355640665108</v>
+        <v>0.4159999999999999</v>
       </c>
       <c r="R45" t="n">
-        <v>6.432631805393268</v>
+        <v>5.592000000000004</v>
       </c>
       <c r="S45" t="n">
-        <v>1.069935827356721</v>
+        <v>0.9880199004975115</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01140634920634921</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.021111832611833</v>
+        <v>2.916</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3531011149160388</v>
+        <v>0.3296318407960186</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.386561904761904</v>
+        <v>1.344</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.05100636105188329</v>
+        <v>0.04187064676616901</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.3102698412698413</v>
+        <v>0.2079999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>29.2263710258232</v>
+        <v>28.12899502487552</v>
       </c>
       <c r="K46" t="n">
-        <v>16.84520932030933</v>
+        <v>15.78</v>
       </c>
       <c r="L46" t="n">
-        <v>41.55080923520921</v>
+        <v>41.30400000000002</v>
       </c>
       <c r="M46" t="n">
-        <v>42.91366719050234</v>
+        <v>43.99327363184069</v>
       </c>
       <c r="N46" t="n">
-        <v>35.55170582010579</v>
+        <v>37.10000000000002</v>
       </c>
       <c r="O46" t="n">
-        <v>49.5949955747956</v>
+        <v>50.25599999999996</v>
       </c>
       <c r="P46" t="n">
-        <v>11.11069509594881</v>
+        <v>10.60280597014924</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.972035897435897</v>
+        <v>4.251999999999998</v>
       </c>
       <c r="R46" t="n">
-        <v>18.37467076023392</v>
+        <v>18.08000000000002</v>
       </c>
       <c r="S46" t="n">
-        <v>2.242409618573792</v>
+        <v>2.152895522388055</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3133333333333336</v>
+        <v>0.26</v>
       </c>
       <c r="U46" t="n">
-        <v>6.222514285714286</v>
+        <v>5.904</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3748524046434483</v>
+        <v>0.3641393034825861</v>
       </c>
       <c r="W46" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.5828</v>
+        <v>1.508</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.02711442786069648</v>
+        <v>0.02465671641791038</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.2106666666666661</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47">
@@ -4325,52 +4325,52 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>69.04316836452641</v>
+        <v>69.51617910447753</v>
       </c>
       <c r="H47" t="n">
-        <v>52.29831428571428</v>
+        <v>52.51199999999998</v>
       </c>
       <c r="I47" t="n">
-        <v>82.26538412698413</v>
+        <v>83.464</v>
       </c>
       <c r="J47" t="n">
-        <v>23.20339044460225</v>
+        <v>22.81942288557197</v>
       </c>
       <c r="K47" t="n">
-        <v>13.33113333333332</v>
+        <v>12.74800000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>36.19629047619049</v>
+        <v>35.93600000000001</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8773274398101963</v>
+        <v>0.7116019900497504</v>
       </c>
       <c r="N47" t="n">
-        <v>0.06915229889177257</v>
+        <v>0.008</v>
       </c>
       <c r="O47" t="n">
-        <v>2.973355555555559</v>
+        <v>2.847999999999999</v>
       </c>
       <c r="P47" t="n">
-        <v>0.06280986489963664</v>
+        <v>0.03142288557213914</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0003333333333333333</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3039590782168181</v>
+        <v>0.2759999999999999</v>
       </c>
       <c r="S47" t="n">
-        <v>0.00447850817564726</v>
+        <v>0.004398009950248752</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0.01282857142857143</v>
+        <v>0.008</v>
       </c>
       <c r="V47" t="n">
-        <v>7.630621595579411e-05</v>
+        <v>5.970149253731321e-05</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>6.6334991708126e-07</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.322361525704803</v>
+        <v>1.352477611940295</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2382222222222222</v>
+        <v>0.256</v>
       </c>
       <c r="F48" t="n">
-        <v>2.735466666666666</v>
+        <v>2.748</v>
       </c>
       <c r="G48" t="n">
-        <v>4.220648866777214</v>
+        <v>4.37580099502486</v>
       </c>
       <c r="H48" t="n">
-        <v>1.836355555555558</v>
+        <v>1.859999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>7.500488888888885</v>
+        <v>7.604000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>5.416464344941951</v>
+        <v>5.436716417910449</v>
       </c>
       <c r="K48" t="n">
-        <v>2.338312169312167</v>
+        <v>2.412000000000001</v>
       </c>
       <c r="L48" t="n">
-        <v>8.900101576201568</v>
+        <v>8.860000000000005</v>
       </c>
       <c r="M48" t="n">
-        <v>5.346533449761623</v>
+        <v>5.307343283582082</v>
       </c>
       <c r="N48" t="n">
-        <v>2.334639954598775</v>
+        <v>2.496</v>
       </c>
       <c r="O48" t="n">
-        <v>8.561698279498279</v>
+        <v>8.568000000000001</v>
       </c>
       <c r="P48" t="n">
-        <v>4.879363894665751</v>
+        <v>4.780696517412923</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.404578049728049</v>
+        <v>2.364000000000002</v>
       </c>
       <c r="R48" t="n">
-        <v>7.888257878281558</v>
+        <v>7.667999999999998</v>
       </c>
       <c r="S48" t="n">
-        <v>3.973047016115409</v>
+        <v>3.770606965174119</v>
       </c>
       <c r="T48" t="n">
-        <v>1.877616498199657</v>
+        <v>1.759999999999999</v>
       </c>
       <c r="U48" t="n">
-        <v>6.380459426658652</v>
+        <v>5.959999999999999</v>
       </c>
       <c r="V48" t="n">
-        <v>2.239374122431825</v>
+        <v>2.294368159203973</v>
       </c>
       <c r="W48" t="n">
-        <v>0.9102930199430194</v>
+        <v>0.9080000000000001</v>
       </c>
       <c r="X48" t="n">
-        <v>3.945789754689754</v>
+        <v>3.908</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.5146401487677599</v>
+        <v>0.5244776119402977</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.001006880700998348</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.239577418877418</v>
+        <v>1.324</v>
       </c>
     </row>
     <row r="49">
@@ -4494,64 +4494,64 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.801801801801802e-05</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.08699289348941087</v>
+        <v>0.09313432835820891</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.4107304140304135</v>
+        <v>0.4</v>
       </c>
       <c r="M49" t="n">
-        <v>0.227417451223918</v>
+        <v>0.2159601990049738</v>
       </c>
       <c r="N49" t="n">
-        <v>0.005333333333333334</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0.7947289271730432</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="P49" t="n">
-        <v>0.2985421937929397</v>
+        <v>0.2888159203980096</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.7999999999999982</v>
+        <v>0.8039999999999998</v>
       </c>
       <c r="S49" t="n">
-        <v>0.3019004282055853</v>
+        <v>0.2904278606965165</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.8502551007815714</v>
+        <v>0.8159999999999998</v>
       </c>
       <c r="V49" t="n">
-        <v>0.2325084729716846</v>
+        <v>0.2411144278606957</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0.6401287016732841</v>
+        <v>0.6120000000000005</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.07196964939427619</v>
+        <v>0.07514427860696517</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0008668894458368142</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.3915851851851844</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1251657272306378</v>
+        <v>0.1171343283582088</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4516722462722461</v>
+        <v>0.4720000000000003</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2388971807124721</v>
+        <v>0.2601592039800987</v>
       </c>
       <c r="H50" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7950785362785353</v>
+        <v>0.8199999999999997</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2955119529631959</v>
+        <v>0.3083781094527354</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9043187701187698</v>
+        <v>0.88</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3545582672716987</v>
+        <v>0.3542288557213915</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0.9986666666666667</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>0.3429019859493729</v>
+        <v>0.3515621890547253</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0.9482222222222223</v>
+        <v>0.9919999999999999</v>
       </c>
       <c r="S50" t="n">
-        <v>0.3273411327202356</v>
+        <v>0.3419701492537295</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1.013311111111111</v>
+        <v>1.044</v>
       </c>
       <c r="V50" t="n">
-        <v>0.2447870206447312</v>
+        <v>0.2450945273631829</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0.8420901098901098</v>
+        <v>0.8719999999999999</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.07962328437179174</v>
+        <v>0.07673631840796009</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.3999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -4660,40 +4660,40 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.801801801801802e-05</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0008153676064123789</v>
+        <v>0.002149253731343276</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.002</v>
+        <v>0.016</v>
       </c>
       <c r="M51" t="n">
-        <v>0.06689419085919905</v>
+        <v>0.05763184079601984</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0.2970174603174602</v>
+        <v>0.276</v>
       </c>
       <c r="P51" t="n">
-        <v>0.07217802653399656</v>
+        <v>0.0648358208955223</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4053333333333324</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S51" t="n">
-        <v>0.07422707081719365</v>
+        <v>0.07255721393034822</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -4702,22 +4702,22 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="V51" t="n">
-        <v>0.05740267866362941</v>
+        <v>0.05592039800995014</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0.3341308203619417</v>
+        <v>0.348</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.02004832826814041</v>
+        <v>0.01739303482587062</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.0001212121212121212</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>55.85962189054717</v>
+        <v>55.93611940298493</v>
       </c>
       <c r="N52" t="n">
-        <v>36.54466666666658</v>
+        <v>36.57200000000002</v>
       </c>
       <c r="O52" t="n">
-        <v>72.06014285714278</v>
+        <v>71.91200000000005</v>
       </c>
       <c r="P52" t="n">
-        <v>22.39389980318177</v>
+        <v>22.60833830845761</v>
       </c>
       <c r="Q52" t="n">
-        <v>13.78629285714287</v>
+        <v>14.06800000000001</v>
       </c>
       <c r="R52" t="n">
-        <v>30.08666174936178</v>
+        <v>30.09199999999998</v>
       </c>
       <c r="S52" t="n">
-        <v>4.759920398009942</v>
+        <v>4.784079601990041</v>
       </c>
       <c r="T52" t="n">
-        <v>0.7853333333333322</v>
+        <v>0.8639999999999997</v>
       </c>
       <c r="U52" t="n">
-        <v>9.795511111111104</v>
+        <v>10.11599999999999</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7936119402985053</v>
+        <v>0.8131940298507458</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>2.831999999999999</v>
+        <v>2.871999999999999</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.05534527363184065</v>
+        <v>0.05824875621890526</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.3933333333333324</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2.382532206691403</v>
+        <v>2.487124378109443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8373714285714287</v>
+        <v>0.8519999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>4.292000000000003</v>
+        <v>4.563999999999998</v>
       </c>
       <c r="G53" t="n">
-        <v>4.437382531785509</v>
+        <v>4.796676616915408</v>
       </c>
       <c r="H53" t="n">
-        <v>1.822111111111112</v>
+        <v>2.011999999999999</v>
       </c>
       <c r="I53" t="n">
-        <v>7.878844444444446</v>
+        <v>8.075999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>5.419625096738525</v>
+        <v>5.431980099502481</v>
       </c>
       <c r="K53" t="n">
-        <v>2.54166666666667</v>
+        <v>2.356000000000002</v>
       </c>
       <c r="L53" t="n">
-        <v>8.980488888888885</v>
+        <v>9.012000000000002</v>
       </c>
       <c r="M53" t="n">
-        <v>5.142618366560651</v>
+        <v>5.036199004975117</v>
       </c>
       <c r="N53" t="n">
-        <v>2.388678049836871</v>
+        <v>2.356</v>
       </c>
       <c r="O53" t="n">
-        <v>8.565800854700854</v>
+        <v>8.183999999999999</v>
       </c>
       <c r="P53" t="n">
-        <v>4.767746576097961</v>
+        <v>4.544358208955217</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.269415545565543</v>
+        <v>2.316000000000002</v>
       </c>
       <c r="R53" t="n">
-        <v>7.588200178476494</v>
+        <v>7.060000000000001</v>
       </c>
       <c r="S53" t="n">
-        <v>3.58949066284737</v>
+        <v>3.513313432835811</v>
       </c>
       <c r="T53" t="n">
-        <v>1.646315151515152</v>
+        <v>1.58</v>
       </c>
       <c r="U53" t="n">
-        <v>5.612791729323309</v>
+        <v>5.547999999999999</v>
       </c>
       <c r="V53" t="n">
-        <v>1.976893915242667</v>
+        <v>2.079263681592034</v>
       </c>
       <c r="W53" t="n">
-        <v>0.6459277777777777</v>
+        <v>0.7120000000000006</v>
       </c>
       <c r="X53" t="n">
-        <v>3.648971428571427</v>
+        <v>3.711999999999999</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.4792654070915253</v>
+        <v>0.4967761194029833</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.003384153428271076</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.156773977873977</v>
+        <v>1.204000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -4906,67 +4906,67 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06115128933918877</v>
+        <v>0.05295522388059693</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0004761904761904762</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3088295297295297</v>
+        <v>0.256</v>
       </c>
       <c r="J54" t="n">
-        <v>0.06911762105993056</v>
+        <v>0.06837810945273629</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.388909015025222</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>0.07672932000004548</v>
+        <v>0.07793034825870639</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.3968052429052421</v>
+        <v>0.396</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0812874330048441</v>
+        <v>0.07948258706467663</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.3999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S54" t="n">
-        <v>0.08432854551473948</v>
+        <v>0.08915422885572126</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0.447</v>
+        <v>0.4560000000000002</v>
       </c>
       <c r="V54" t="n">
-        <v>0.05792656138017555</v>
+        <v>0.05277611940298498</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.2997399585921326</v>
+        <v>0.264</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.01442319470956461</v>
+        <v>0.01052736318407958</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -4980,76 +4980,76 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.003820895522388048</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1846056362198019</v>
+        <v>0.1684577114427861</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0004761904761904762</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6749561105561105</v>
+        <v>0.6360000000000006</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2845039184603853</v>
+        <v>0.275203980099501</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8610337165758214</v>
+        <v>0.9279999999999998</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3180975170281788</v>
+        <v>0.3250149253731333</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.9867777777777779</v>
+        <v>0.9839999999999999</v>
       </c>
       <c r="P55" t="n">
-        <v>0.3319555826843129</v>
+        <v>0.3318606965174118</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.9955333333333333</v>
+        <v>0.9599999999999999</v>
       </c>
       <c r="S55" t="n">
-        <v>0.3384435190293387</v>
+        <v>0.3397014925373118</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>0.9450750948398006</v>
+        <v>0.8839999999999998</v>
       </c>
       <c r="V55" t="n">
-        <v>0.2352198617303086</v>
+        <v>0.2327363184079594</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0.714896744741327</v>
+        <v>0.6560000000000005</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.06949090227075294</v>
+        <v>0.06730348258706448</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.3993333333333324</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -5081,58 +5081,58 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>55.71309881089971</v>
+        <v>56.44527363184068</v>
       </c>
       <c r="K56" t="n">
-        <v>37.09324119214116</v>
+        <v>37.08400000000002</v>
       </c>
       <c r="L56" t="n">
-        <v>73.00122510822517</v>
+        <v>72.74400000000004</v>
       </c>
       <c r="M56" t="n">
-        <v>23.37748940055699</v>
+        <v>23.05775124378097</v>
       </c>
       <c r="N56" t="n">
-        <v>15.09450264550264</v>
+        <v>15.15999999999999</v>
       </c>
       <c r="O56" t="n">
-        <v>30.37596854626856</v>
+        <v>30.452</v>
       </c>
       <c r="P56" t="n">
-        <v>4.941047619047606</v>
+        <v>5.017810945273617</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.197967532467534</v>
+        <v>1.212000000000001</v>
       </c>
       <c r="R56" t="n">
-        <v>11.09827399387105</v>
+        <v>10.92</v>
       </c>
       <c r="S56" t="n">
-        <v>1.038765671641791</v>
+        <v>1.04252736318408</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>3.66942857142857</v>
+        <v>3.667999999999998</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1944411276948589</v>
+        <v>0.1888955223880593</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0.9040000000000002</v>
+        <v>0.8920000000000001</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.01400139010828208</v>
+        <v>0.013592039800995</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.0004444444444444445</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.1973333333333328</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>53.31550571359178</v>
+        <v>49.9684378109452</v>
       </c>
       <c r="K57" t="n">
-        <v>34.85504708994709</v>
+        <v>33.11600000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>70.33061003832766</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>37.51367258153668</v>
+        <v>36.46055721393029</v>
       </c>
       <c r="N57" t="n">
-        <v>27.06910476190475</v>
+        <v>26.136</v>
       </c>
       <c r="O57" t="n">
-        <v>46.08913299663301</v>
+        <v>45.712</v>
       </c>
       <c r="P57" t="n">
-        <v>3.001384136675915</v>
+        <v>3.337333333333321</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.4130119047619041</v>
+        <v>0.5399999999999996</v>
       </c>
       <c r="R57" t="n">
-        <v>8.533690476190477</v>
+        <v>8.764000000000005</v>
       </c>
       <c r="S57" t="n">
-        <v>0.2407450474898225</v>
+        <v>0.3332139303482572</v>
       </c>
       <c r="T57" t="n">
-        <v>0.004000000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="U57" t="n">
-        <v>1.1469</v>
+        <v>1.484000000000001</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0205854299928926</v>
+        <v>0.03564179104477598</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0.1856666666666667</v>
+        <v>0.2519999999999998</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.0005780863357061311</v>
+        <v>0.001910447761194027</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="58">
@@ -5229,34 +5229,34 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1222444131660402</v>
+        <v>0.10873631840796</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.438913516113516</v>
+        <v>0.448</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2281496566684307</v>
+        <v>0.2384676616915417</v>
       </c>
       <c r="H58" t="n">
-        <v>0.002451851851851852</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7620815073815067</v>
+        <v>0.784</v>
       </c>
       <c r="J58" t="n">
-        <v>0.289404405682763</v>
+        <v>0.2890547263681585</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9067346431346428</v>
+        <v>0.9</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3514557428567364</v>
+        <v>0.352378109452735</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>0.996</v>
       </c>
       <c r="P58" t="n">
-        <v>0.3415332800560399</v>
+        <v>0.3474228855721384</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -5274,31 +5274,31 @@
         <v>1</v>
       </c>
       <c r="S58" t="n">
-        <v>0.3364398426062593</v>
+        <v>0.3361990049751231</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0.885086893498658</v>
+        <v>0.9439999999999996</v>
       </c>
       <c r="V58" t="n">
-        <v>0.2472134089054479</v>
+        <v>0.2480597014925365</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>0.7684710622710622</v>
+        <v>0.7959999999999998</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.07600764683078104</v>
+        <v>0.07727363184079589</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.3999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -5330,58 +5330,58 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>28.21215341378717</v>
+        <v>29.22340298507454</v>
       </c>
       <c r="K59" t="n">
-        <v>15.23654776334776</v>
+        <v>16.14399999999999</v>
       </c>
       <c r="L59" t="n">
-        <v>42.65181349206352</v>
+        <v>43.69599999999998</v>
       </c>
       <c r="M59" t="n">
-        <v>25.63590586848186</v>
+        <v>26.08597014925354</v>
       </c>
       <c r="N59" t="n">
-        <v>18.59296806156806</v>
+        <v>18.96</v>
       </c>
       <c r="O59" t="n">
-        <v>31.61399605949607</v>
+        <v>31.82799999999999</v>
       </c>
       <c r="P59" t="n">
-        <v>12.51168032643485</v>
+        <v>12.29594029850746</v>
       </c>
       <c r="Q59" t="n">
-        <v>7.731532802818098</v>
+        <v>7.500000000000004</v>
       </c>
       <c r="R59" t="n">
-        <v>16.76063276293709</v>
+        <v>16.764</v>
       </c>
       <c r="S59" t="n">
-        <v>5.465693863780995</v>
+        <v>4.964159203980095</v>
       </c>
       <c r="T59" t="n">
-        <v>1.803794372294372</v>
+        <v>1.623999999999999</v>
       </c>
       <c r="U59" t="n">
-        <v>9.826662096324728</v>
+        <v>9.211999999999996</v>
       </c>
       <c r="V59" t="n">
-        <v>1.699677611940297</v>
+        <v>1.611940298507462</v>
       </c>
       <c r="W59" t="n">
-        <v>0.2013333333333329</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="X59" t="n">
-        <v>3.830200000000001</v>
+        <v>3.700000000000002</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.2246389718076274</v>
+        <v>0.2153830845771131</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.0001481481481481481</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.8757917637917628</v>
+        <v>0.7879999999999998</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05408768358642507</v>
+        <v>0.04117412935323374</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3279179894179895</v>
+        <v>0.276</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06823522125237078</v>
+        <v>0.06903482587064669</v>
       </c>
       <c r="H60" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3892361712361707</v>
+        <v>0.396</v>
       </c>
       <c r="J60" t="n">
-        <v>0.08095501435998274</v>
+        <v>0.07408955223880596</v>
       </c>
       <c r="K60" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3874743252705322</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="M60" t="n">
-        <v>0.08757235953997854</v>
+        <v>0.08845771144278598</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.398005242905242</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="P60" t="n">
-        <v>0.09787968003121643</v>
+        <v>0.09361194029850736</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0.5253333333333337</v>
+        <v>0.4639999999999999</v>
       </c>
       <c r="S60" t="n">
-        <v>0.08132118154095755</v>
+        <v>0.07928358208955219</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.404</v>
       </c>
       <c r="V60" t="n">
-        <v>0.06188357708258189</v>
+        <v>0.06191044776119394</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0.3820399585921324</v>
+        <v>0.396</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.01468240112213703</v>
+        <v>0.01659701492537313</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="61">
@@ -5487,67 +5487,67 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>55.78590817246131</v>
+        <v>55.92738308457705</v>
       </c>
       <c r="H61" t="n">
-        <v>37.11819618127449</v>
+        <v>36.76400000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>71.81969064269063</v>
+        <v>72.02</v>
       </c>
       <c r="J61" t="n">
-        <v>22.88893786176078</v>
+        <v>23.49466666666653</v>
       </c>
       <c r="K61" t="n">
-        <v>14.3543843711844</v>
+        <v>15.10399999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>30.14712294372295</v>
+        <v>30.96399999999999</v>
       </c>
       <c r="M61" t="n">
-        <v>5.177907032380757</v>
+        <v>5.25588059701492</v>
       </c>
       <c r="N61" t="n">
-        <v>0.9206911731600586</v>
+        <v>1.228000000000001</v>
       </c>
       <c r="O61" t="n">
-        <v>11.04630078857045</v>
+        <v>11.22799999999999</v>
       </c>
       <c r="P61" t="n">
-        <v>1.027716122335957</v>
+        <v>1.099980099502487</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.002473160173160173</v>
+        <v>0.008</v>
       </c>
       <c r="R61" t="n">
-        <v>3.576381914381914</v>
+        <v>3.480000000000002</v>
       </c>
       <c r="S61" t="n">
-        <v>0.2409085562033311</v>
+        <v>0.2611741293532324</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>1.064886868686869</v>
+        <v>1.148</v>
       </c>
       <c r="V61" t="n">
-        <v>0.04313055094895881</v>
+        <v>0.04678606965174123</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0.3839999999999999</v>
+        <v>0.4079999999999999</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.004309839922702082</v>
+        <v>0.004000000000000002</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.009999999999999998</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="62">
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>11.35798021006078</v>
+        <v>11.32021890547263</v>
       </c>
       <c r="H62" t="n">
-        <v>5.631355555555547</v>
+        <v>5.484000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>20.62022222222217</v>
+        <v>19.57600000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>32.52792355514389</v>
+        <v>32.90551243781089</v>
       </c>
       <c r="K62" t="n">
-        <v>20.17128071188072</v>
+        <v>20.88399999999999</v>
       </c>
       <c r="L62" t="n">
-        <v>44.64148253968258</v>
+        <v>44.92799999999999</v>
       </c>
       <c r="M62" t="n">
-        <v>16.84163678472338</v>
+        <v>18.73404975124378</v>
       </c>
       <c r="N62" t="n">
-        <v>12.75608923760602</v>
+        <v>14.31999999999999</v>
       </c>
       <c r="O62" t="n">
-        <v>22.24066868548261</v>
+        <v>23.316</v>
       </c>
       <c r="P62" t="n">
-        <v>8.188474549628518</v>
+        <v>8.213512437810943</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.683391238457481</v>
+        <v>3.607999999999997</v>
       </c>
       <c r="R62" t="n">
-        <v>13.01899320313345</v>
+        <v>12.65200000000001</v>
       </c>
       <c r="S62" t="n">
-        <v>3.48372728385489</v>
+        <v>3.358726368159203</v>
       </c>
       <c r="T62" t="n">
-        <v>1.044703367003367</v>
+        <v>0.8959999999999998</v>
       </c>
       <c r="U62" t="n">
-        <v>7.678637352647354</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="V62" t="n">
-        <v>1.091710889994471</v>
+        <v>1.077631840796019</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>2.9334</v>
+        <v>2.868</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.1426398720682302</v>
+        <v>0.1439203980099502</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.0001390374331550802</v>
+        <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.5258296296296294</v>
+        <v>0.5920000000000005</v>
       </c>
     </row>
     <row r="63">
@@ -5644,61 +5644,61 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>54.81122388059708</v>
+        <v>55.21681592039791</v>
       </c>
       <c r="E63" t="n">
-        <v>35.56533333333333</v>
+        <v>37.56400000000003</v>
       </c>
       <c r="F63" t="n">
-        <v>71.37866666666673</v>
+        <v>72.70799999999998</v>
       </c>
       <c r="G63" t="n">
-        <v>23.45940077390807</v>
+        <v>23.73243781094511</v>
       </c>
       <c r="H63" t="n">
-        <v>14.54399999999998</v>
+        <v>14.61999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>31.02746666666665</v>
+        <v>31.55600000000002</v>
       </c>
       <c r="J63" t="n">
-        <v>6.030385880123189</v>
+        <v>5.539582089552234</v>
       </c>
       <c r="K63" t="n">
-        <v>1.84375238095238</v>
+        <v>1.404000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>11.79762380952381</v>
+        <v>10.75599999999999</v>
       </c>
       <c r="M63" t="n">
-        <v>1.977974904096321</v>
+        <v>1.30270646766169</v>
       </c>
       <c r="N63" t="n">
-        <v>0.3429852200717526</v>
+        <v>0.048</v>
       </c>
       <c r="O63" t="n">
-        <v>4.34694494024494</v>
+        <v>3.576000000000001</v>
       </c>
       <c r="P63" t="n">
-        <v>0.4369349832981009</v>
+        <v>0.3138905472636811</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.002473160173160173</v>
+        <v>0.008</v>
       </c>
       <c r="R63" t="n">
-        <v>1.600257287157288</v>
+        <v>1.340000000000001</v>
       </c>
       <c r="S63" t="n">
-        <v>0.09119623574325049</v>
+        <v>0.08425870646766169</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0.4820138528138526</v>
+        <v>0.4719999999999998</v>
       </c>
       <c r="V63" t="n">
-        <v>0.01400161888967858</v>
+        <v>0.01490547263681591</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -5707,13 +5707,13 @@
         <v>0.2199999999999999</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.001925005922767118</v>
+        <v>0.002686567164179103</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05075856726327889</v>
+        <v>0.04197014925373125</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3206481481481481</v>
+        <v>0.268</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06922361262882183</v>
+        <v>0.06881592039800984</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00234074074074074</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3873314093314088</v>
+        <v>0.396</v>
       </c>
       <c r="J64" t="n">
-        <v>0.07721423772691237</v>
+        <v>0.07279601990049747</v>
       </c>
       <c r="K64" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3874743252705322</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="M64" t="n">
-        <v>0.08414662525583241</v>
+        <v>0.08766169154228846</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0.398005242905242</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="P64" t="n">
-        <v>0.08622243137335288</v>
+        <v>0.09064676616915411</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.4079999999999991</v>
+        <v>0.4279999999999998</v>
       </c>
       <c r="S64" t="n">
-        <v>0.0833728675553301</v>
+        <v>0.0811343283582089</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.404</v>
       </c>
       <c r="V64" t="n">
-        <v>0.05630550992596633</v>
+        <v>0.06035820895522379</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0.3687066252587992</v>
+        <v>0.396</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.01788329302118521</v>
+        <v>0.01944278606965173</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="65">
@@ -5837,49 +5837,49 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>78.44889386401304</v>
+        <v>78.28989054726355</v>
       </c>
       <c r="N65" t="n">
-        <v>61.12666666666663</v>
+        <v>61.39599999999996</v>
       </c>
       <c r="O65" t="n">
-        <v>89.20547777777783</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="P65" t="n">
-        <v>10.5893671641791</v>
+        <v>10.65283582089552</v>
       </c>
       <c r="Q65" t="n">
-        <v>4.017864285714281</v>
+        <v>4.151999999999998</v>
       </c>
       <c r="R65" t="n">
-        <v>20.20520000000002</v>
+        <v>20.704</v>
       </c>
       <c r="S65" t="n">
-        <v>0.8435995024875618</v>
+        <v>0.8697512437810933</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>3.07</v>
+        <v>3.255999999999999</v>
       </c>
       <c r="V65" t="n">
-        <v>0.07048866777224969</v>
+        <v>0.07532338308457699</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>0.5024000000000001</v>
+        <v>0.524</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.002162189054726367</v>
+        <v>0.002407960199004975</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.005333333333333334</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>4.315006412382536</v>
+        <v>3.457054726368154</v>
       </c>
       <c r="E66" t="n">
-        <v>1.702200000000002</v>
+        <v>1.384</v>
       </c>
       <c r="F66" t="n">
-        <v>8.184666666666677</v>
+        <v>6.367999999999994</v>
       </c>
       <c r="G66" t="n">
-        <v>14.47568931006341</v>
+        <v>14.35478606965175</v>
       </c>
       <c r="H66" t="n">
-        <v>7.331761904761906</v>
+        <v>7.224000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>23.34444444444449</v>
+        <v>23.18399999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>14.32621213078427</v>
+        <v>14.30728358208954</v>
       </c>
       <c r="K66" t="n">
-        <v>8.068163155363155</v>
+        <v>7.972</v>
       </c>
       <c r="L66" t="n">
-        <v>20.58152582972583</v>
+        <v>20.212</v>
       </c>
       <c r="M66" t="n">
-        <v>9.637905891721257</v>
+        <v>10.78927363184078</v>
       </c>
       <c r="N66" t="n">
-        <v>6.47213831698767</v>
+        <v>7.107999999999997</v>
       </c>
       <c r="O66" t="n">
-        <v>13.81004354899353</v>
+        <v>14.62000000000001</v>
       </c>
       <c r="P66" t="n">
-        <v>6.854352230402241</v>
+        <v>7.192756218905464</v>
       </c>
       <c r="Q66" t="n">
-        <v>4.239737406396042</v>
+        <v>4.488000000000004</v>
       </c>
       <c r="R66" t="n">
-        <v>9.196522723910899</v>
+        <v>9.900000000000004</v>
       </c>
       <c r="S66" t="n">
-        <v>4.404290392956923</v>
+        <v>4.386368159203967</v>
       </c>
       <c r="T66" t="n">
-        <v>2.154411602819838</v>
+        <v>2.12</v>
       </c>
       <c r="U66" t="n">
-        <v>6.67327201407124</v>
+        <v>6.74</v>
       </c>
       <c r="V66" t="n">
-        <v>2.064393587378157</v>
+        <v>2.104636815920389</v>
       </c>
       <c r="W66" t="n">
-        <v>0.6972774114774112</v>
+        <v>0.6680000000000006</v>
       </c>
       <c r="X66" t="n">
-        <v>3.830661183261183</v>
+        <v>3.864000000000002</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.4056819832461616</v>
+        <v>0.4239800995024864</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.0003619047619047619</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>1.111442912642913</v>
+        <v>1.188000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -5976,76 +5976,76 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.1358805970149248</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.256</v>
       </c>
       <c r="G67" t="n">
-        <v>10.07533398088917</v>
+        <v>9.901572139303472</v>
       </c>
       <c r="H67" t="n">
-        <v>5.048866666666666</v>
+        <v>5.012</v>
       </c>
       <c r="I67" t="n">
-        <v>16.60811111111111</v>
+        <v>16.59600000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>14.89838657389229</v>
+        <v>14.89430845771144</v>
       </c>
       <c r="K67" t="n">
-        <v>8.171579268879279</v>
+        <v>8.032</v>
       </c>
       <c r="L67" t="n">
-        <v>22.56180137085138</v>
+        <v>22.136</v>
       </c>
       <c r="M67" t="n">
-        <v>12.53187742331088</v>
+        <v>12.33044776119401</v>
       </c>
       <c r="N67" t="n">
-        <v>7.779021472191595</v>
+        <v>7.552000000000001</v>
       </c>
       <c r="O67" t="n">
-        <v>17.09162386866238</v>
+        <v>17.20799999999999</v>
       </c>
       <c r="P67" t="n">
-        <v>8.262803903270408</v>
+        <v>8.615323383084572</v>
       </c>
       <c r="Q67" t="n">
-        <v>5.71143474507612</v>
+        <v>6.007999999999998</v>
       </c>
       <c r="R67" t="n">
-        <v>10.94248540510556</v>
+        <v>11.816</v>
       </c>
       <c r="S67" t="n">
-        <v>5.337711869959747</v>
+        <v>5.428636815920393</v>
       </c>
       <c r="T67" t="n">
-        <v>2.948059880468116</v>
+        <v>3.083999999999999</v>
       </c>
       <c r="U67" t="n">
-        <v>7.500530950748596</v>
+        <v>7.94</v>
       </c>
       <c r="V67" t="n">
-        <v>2.555983838735748</v>
+        <v>2.552278606965169</v>
       </c>
       <c r="W67" t="n">
-        <v>1.120608154223943</v>
+        <v>1.088</v>
       </c>
       <c r="X67" t="n">
-        <v>4.302995593295593</v>
+        <v>4.376000000000004</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.5259343441522542</v>
+        <v>0.5209353233830847</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.01728970658970659</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.341755462398787</v>
+        <v>1.304</v>
       </c>
     </row>
     <row r="68">
@@ -6068,67 +6068,67 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1145790207586095</v>
+        <v>0.09160199004975117</v>
       </c>
       <c r="H68" t="n">
-        <v>0.005523809523809525</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3994283457283456</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2156321033950376</v>
+        <v>0.2304278606965158</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.7144268987204743</v>
+        <v>0.7680000000000001</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3093320367005094</v>
+        <v>0.3021890547263669</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0.8177855409296567</v>
+        <v>0.8119999999999997</v>
       </c>
       <c r="P68" t="n">
-        <v>0.3291134599645781</v>
+        <v>0.3255124378109439</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0.9768666666666667</v>
+        <v>0.988</v>
       </c>
       <c r="S68" t="n">
-        <v>0.3245477761321033</v>
+        <v>0.3266666666666657</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>1.030826262626263</v>
+        <v>0.9559999999999996</v>
       </c>
       <c r="V68" t="n">
-        <v>0.2276849329590616</v>
+        <v>0.2256119402985067</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>0.7404238372566547</v>
+        <v>0.6560000000000005</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.07352475319042476</v>
+        <v>0.06762189054726359</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.0002663101604278076</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.3920296296296287</v>
+        <v>0.3839999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6151,64 +6151,64 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>67.8316972281449</v>
+        <v>68.64039800995026</v>
       </c>
       <c r="H69" t="n">
-        <v>53.00088253968246</v>
+        <v>53.46399999999998</v>
       </c>
       <c r="I69" t="n">
-        <v>80.79605396825389</v>
+        <v>81.31200000000004</v>
       </c>
       <c r="J69" t="n">
-        <v>24.04091851851832</v>
+        <v>23.38208955223866</v>
       </c>
       <c r="K69" t="n">
-        <v>14.14153333333332</v>
+        <v>13.43200000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>36.04256666666667</v>
+        <v>35.27200000000001</v>
       </c>
       <c r="M69" t="n">
-        <v>0.8755144558897495</v>
+        <v>0.8040199004975116</v>
       </c>
       <c r="N69" t="n">
-        <v>0.07343960047907414</v>
+        <v>0.016</v>
       </c>
       <c r="O69" t="n">
-        <v>3.046406349206351</v>
+        <v>3.084</v>
       </c>
       <c r="P69" t="n">
-        <v>0.05874566210409062</v>
+        <v>0.04712437810945257</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.004333333333333333</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2752416178993579</v>
+        <v>0.2919999999999998</v>
       </c>
       <c r="S69" t="n">
-        <v>0.003453098068893872</v>
+        <v>0.003084577114427861</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0.01082857142857143</v>
+        <v>0.016</v>
       </c>
       <c r="V69" t="n">
-        <v>0.0001118112305652863</v>
+        <v>7.960199004975121e-05</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0.001888888888888889</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.421227197346599e-05</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.0001390374331550802</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
         <v>0</v>
@@ -6234,67 +6234,67 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.002547263681592032</v>
       </c>
       <c r="H70" t="n">
-        <v>1.801801801801802e-05</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2005083519651666</v>
+        <v>0.1827860696517407</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.6717332812268569</v>
+        <v>0.7440000000000001</v>
       </c>
       <c r="M70" t="n">
-        <v>0.2827194222650092</v>
+        <v>0.2866268656716409</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0.8307344827285991</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="P70" t="n">
-        <v>0.3095268035723256</v>
+        <v>0.2979104477611937</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>0.8288888888888872</v>
+        <v>0.9279999999999998</v>
       </c>
       <c r="S70" t="n">
-        <v>0.3233855655530362</v>
+        <v>0.3271044776119396</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>0.8800889525507172</v>
+        <v>0.8159999999999996</v>
       </c>
       <c r="V70" t="n">
-        <v>0.2207255990462734</v>
+        <v>0.2218905472636805</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>0.669984262452374</v>
+        <v>0.7280000000000002</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.06285377712392631</v>
+        <v>0.05990049751243773</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.0002364672364672365</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.3906333333333325</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="71">
@@ -6320,64 +6320,64 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0006021450021450022</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.02452271973465999</v>
+        <v>0.0180099502487562</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0183959595959596</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.024</v>
+        <v>0.048</v>
       </c>
       <c r="M71" t="n">
-        <v>2.726863681592022</v>
+        <v>2.738507462686554</v>
       </c>
       <c r="N71" t="n">
-        <v>0.9145206349206345</v>
+        <v>0.8959999999999997</v>
       </c>
       <c r="O71" t="n">
-        <v>5.144333333333337</v>
+        <v>5.167999999999999</v>
       </c>
       <c r="P71" t="n">
-        <v>4.776838308457698</v>
+        <v>4.76999004975123</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.847107936507938</v>
+        <v>1.835999999999999</v>
       </c>
       <c r="R71" t="n">
-        <v>8.415733333333337</v>
+        <v>8.315999999999994</v>
       </c>
       <c r="S71" t="n">
-        <v>4.925000552791591</v>
+        <v>4.964398009950237</v>
       </c>
       <c r="T71" t="n">
-        <v>2.04984071114071</v>
+        <v>2.088000000000001</v>
       </c>
       <c r="U71" t="n">
-        <v>8.349612698412697</v>
+        <v>8.451999999999998</v>
       </c>
       <c r="V71" t="n">
-        <v>3.404909116035973</v>
+        <v>3.355721393034818</v>
       </c>
       <c r="W71" t="n">
-        <v>1.388099126799125</v>
+        <v>1.48</v>
       </c>
       <c r="X71" t="n">
-        <v>5.688727272727273</v>
+        <v>5.624</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.8168010508286616</v>
+        <v>0.8199203980099486</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.07564468094659903</v>
+        <v>0.07600000000000003</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.825997667909436</v>
+        <v>1.803999999999998</v>
       </c>
     </row>
     <row r="72">
@@ -6400,67 +6400,67 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.01828855721393032</v>
       </c>
       <c r="H72" t="n">
-        <v>0.003268811668811669</v>
+        <v>0.004000000000000001</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J72" t="n">
-        <v>2.612778409539598</v>
+        <v>2.563283582089547</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9733333333333334</v>
+        <v>0.9599999999999999</v>
       </c>
       <c r="L72" t="n">
-        <v>4.938433333333338</v>
+        <v>4.848000000000002</v>
       </c>
       <c r="M72" t="n">
-        <v>4.802770686251275</v>
+        <v>4.783621890547255</v>
       </c>
       <c r="N72" t="n">
-        <v>2.063525641025641</v>
+        <v>1.968</v>
       </c>
       <c r="O72" t="n">
-        <v>8.853743963443964</v>
+        <v>8.788</v>
       </c>
       <c r="P72" t="n">
-        <v>5.224759957631314</v>
+        <v>5.18413930348258</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.331021808583573</v>
+        <v>2.252000000000002</v>
       </c>
       <c r="R72" t="n">
-        <v>8.647072616272613</v>
+        <v>8.636000000000008</v>
       </c>
       <c r="S72" t="n">
-        <v>4.538251022664448</v>
+        <v>4.590049751243768</v>
       </c>
       <c r="T72" t="n">
-        <v>2.05662721684347</v>
+        <v>2.04</v>
       </c>
       <c r="U72" t="n">
-        <v>7.793968773255732</v>
+        <v>7.868000000000006</v>
       </c>
       <c r="V72" t="n">
-        <v>2.894977003573922</v>
+        <v>2.901611940298504</v>
       </c>
       <c r="W72" t="n">
-        <v>1.179519970334676</v>
+        <v>1.180000000000001</v>
       </c>
       <c r="X72" t="n">
-        <v>5.019191680541681</v>
+        <v>5.007999999999999</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.7081462291716006</v>
+        <v>0.70409950248756</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.06211681838400097</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.578963109197278</v>
+        <v>1.588</v>
       </c>
     </row>
   </sheetData>
